--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738096.38</v>
+        <v>3050335.2</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69523.86</v>
+        <v>78213.72</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233923.56</v>
+        <v>220610.6</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116391.87</v>
+        <v>102193.73</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39833.17</v>
+        <v>39630.11</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208896.09</v>
+        <v>244918.33</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16534.15</v>
+        <v>15483.16</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30327.94</v>
+        <v>29896.36</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224082.49</v>
+        <v>221617.39</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109653.59</v>
+        <v>108512.71</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44521.1</v>
+        <v>41621.19</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88111</v>
+        <v>88244.17999999999</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84120.14999999999</v>
+        <v>84369.67</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59706.99</v>
+        <v>59505.31</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82656.94</v>
+        <v>133114.63</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85173.59</v>
+        <v>133532.9</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50222.19</v>
+        <v>50292.22</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74850.08</v>
+        <v>74972.58</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29948.08</v>
+        <v>29936.43</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26999.81</v>
+        <v>30563.51</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36412.76</v>
+        <v>36468.68</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26202.07</v>
+        <v>79401.98</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27333.44</v>
+        <v>33842.08</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9439.73</v>
+        <v>9435.84</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>468.49</v>
+        <v>458.4</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6792.42</v>
+        <v>6789.85</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,147 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25494.68</v>
+        <v>25511.43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1574.62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5272.83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22799.76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>17666.01</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5372.62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>931.05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>72716.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4002.64</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>347793.75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>396480.26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>599.67</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6789.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>254863.43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12548.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,255 +439,335 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3050335.2</v>
+        <v>79401.98</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79414.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78213.72</v>
+        <v>220610.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221482.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220610.6</v>
+        <v>33842.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33856.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102193.73</v>
+        <v>36468.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39693.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39630.11</v>
+        <v>102193.73</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102320.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244918.33</v>
+        <v>39630.11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40361.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15483.16</v>
+        <v>931.05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>926.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29896.36</v>
+        <v>9435.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12914.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221617.39</v>
+        <v>4002.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4018.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108512.71</v>
+        <v>244918.33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>280311.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41621.19</v>
+        <v>396480.26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>395513.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88244.17999999999</v>
+        <v>15483.16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15851.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84369.67</v>
+        <v>29896.36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30315.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59505.31</v>
+        <v>5272.83</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5273.87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133114.63</v>
+        <v>22799.76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22206.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>133532.9</v>
+        <v>1574.62</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1583.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50292.22</v>
+        <v>133114.63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>144020.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74972.58</v>
+        <v>133532.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>139005.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29936.43</v>
+        <v>221617.39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>229261.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30563.51</v>
+        <v>108512.71</v>
+      </c>
+      <c r="C21" t="n">
+        <v>110452.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36468.68</v>
+        <v>458.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>484.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79401.98</v>
+        <v>599.67</v>
+      </c>
+      <c r="C23" t="n">
+        <v>612.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33842.08</v>
+        <v>41621.19</v>
+      </c>
+      <c r="C24" t="n">
+        <v>41553.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9435.84</v>
+        <v>88244.17999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>88052.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>458.4</v>
+        <v>30563.51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41973.02</v>
       </c>
     </row>
     <row r="27">
@@ -699,155 +779,203 @@
       <c r="B27" t="n">
         <v>6789.85</v>
       </c>
+      <c r="C27" t="n">
+        <v>9787.309999999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25511.43</v>
+        <v>6789.85</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9787.309999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1574.62</v>
+        <v>17666.01</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17694.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5272.83</v>
+        <v>5372.62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5379.84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22799.76</v>
+        <v>25511.43</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25504.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17666.01</v>
+        <v>50292.22</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50379.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5372.62</v>
+        <v>74972.58</v>
+      </c>
+      <c r="C33" t="n">
+        <v>74989.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.05</v>
+        <v>84369.67</v>
+      </c>
+      <c r="C34" t="n">
+        <v>84283.78999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72716.8</v>
+        <v>59505.31</v>
+      </c>
+      <c r="C35" t="n">
+        <v>59443.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4002.64</v>
+        <v>254863.43</v>
+      </c>
+      <c r="C36" t="n">
+        <v>253901.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>347793.75</v>
+        <v>12548.64</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10703.51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396480.26</v>
+        <v>347793.75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>345735.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>599.67</v>
+        <v>29936.43</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29963.54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6789.85</v>
+        <v>72716.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>72719.12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>254863.43</v>
+        <v>78213.72</v>
+      </c>
+      <c r="C41" t="n">
+        <v>80300.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12548.64</v>
+        <v>3050335.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3131734.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,405 +439,530 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3121947.39</v>
+        <v>79414.77</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79431.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82156.50999999999</v>
+        <v>221482.79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221434.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79414.77</v>
+        <v>33856.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33872.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221482.79</v>
+        <v>39693.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39548.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33856.63</v>
+        <v>102320.15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102067.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39693.41</v>
+        <v>40361.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40122.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102320.15</v>
+        <v>926.46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>919.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40361.7</v>
+        <v>12914.81</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12915.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>926.46</v>
+        <v>4018.68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4015.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12914.81</v>
+        <v>280311.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>280821.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4018.68</v>
+        <v>395513.04</v>
+      </c>
+      <c r="C12" t="n">
+        <v>397251.87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280311.9</v>
+        <v>15851.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15422.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395513.04</v>
+        <v>30315.27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30361.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15851.39</v>
+        <v>1583.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1575.92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30315.27</v>
+        <v>5273.87</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5270.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1583.9</v>
+        <v>22206.95</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22587.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5273.87</v>
+        <v>144020.68</v>
+      </c>
+      <c r="C18" t="n">
+        <v>149068.41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22206.95</v>
+        <v>139005.78</v>
+      </c>
+      <c r="C19" t="n">
+        <v>145406.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144020.68</v>
+        <v>229261.36</v>
+      </c>
+      <c r="C20" t="n">
+        <v>246788.72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>139005.78</v>
+        <v>110452.16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>113029.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>229261.36</v>
+        <v>484.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>544.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110452.16</v>
+        <v>612.96</v>
+      </c>
+      <c r="C23" t="n">
+        <v>613.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>484.7</v>
+        <v>41553.33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>41353.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.96</v>
+        <v>88052.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>88282.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41553.33</v>
+        <v>41973.02</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43881.66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88052.3</v>
+        <v>9787.309999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9791.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41973.02</v>
+        <v>17694.57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17683.51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9787.309999999999</v>
+        <v>5379.84</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5349.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17694.57</v>
+        <v>25504.97</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25435.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5379.84</v>
+        <v>50379.18</v>
+      </c>
+      <c r="C31" t="n">
+        <v>65350.43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25504.97</v>
+        <v>74989.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>74852.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50379.18</v>
+        <v>84283.78999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>84278.53999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74989.28</v>
+        <v>59443.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>59509.98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84283.78999999999</v>
+        <v>253901.02</v>
+      </c>
+      <c r="C35" t="n">
+        <v>254941.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59443.28</v>
+        <v>10703.51</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11401.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>253901.02</v>
+        <v>345735.97</v>
+      </c>
+      <c r="C37" t="n">
+        <v>294343.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10703.51</v>
+        <v>29963.54</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29933.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>345735.97</v>
+        <v>72719.12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>72630.53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29963.54</v>
+        <v>82156.50999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>82160.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72719.12</v>
+        <v>3121947.39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3122088.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -597,9 +597,7 @@
       <c r="B13" t="n">
         <v>15851.39</v>
       </c>
-      <c r="C13" t="n">
-        <v>15422.33</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -610,9 +608,7 @@
       <c r="B14" t="n">
         <v>30315.27</v>
       </c>
-      <c r="C14" t="n">
-        <v>30361.5</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +619,7 @@
       <c r="B15" t="n">
         <v>1583.9</v>
       </c>
-      <c r="C15" t="n">
-        <v>1575.92</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +630,7 @@
       <c r="B16" t="n">
         <v>5273.87</v>
       </c>
-      <c r="C16" t="n">
-        <v>5270.41</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +641,7 @@
       <c r="B17" t="n">
         <v>22206.95</v>
       </c>
-      <c r="C17" t="n">
-        <v>22587.44</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +652,7 @@
       <c r="B18" t="n">
         <v>144020.68</v>
       </c>
-      <c r="C18" t="n">
-        <v>149068.41</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +663,7 @@
       <c r="B19" t="n">
         <v>139005.78</v>
       </c>
-      <c r="C19" t="n">
-        <v>145406.95</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +674,7 @@
       <c r="B20" t="n">
         <v>229261.36</v>
       </c>
-      <c r="C20" t="n">
-        <v>246788.72</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -831,9 +815,7 @@
       <c r="B31" t="n">
         <v>50379.18</v>
       </c>
-      <c r="C31" t="n">
-        <v>65350.43</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -949,7 +931,7 @@
         <v>82156.50999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>82160.22</v>
+        <v>84146.75999999999</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +944,7 @@
         <v>3121947.39</v>
       </c>
       <c r="C41" t="n">
-        <v>3122088.22</v>
+        <v>2440256.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79414.77</v>
+        <v>42035.07</v>
       </c>
       <c r="C2" t="n">
-        <v>79431.98</v>
+        <v>41821.6</v>
       </c>
       <c r="D2" t="n">
-        <v>91292.33</v>
+        <v>43560.94</v>
       </c>
       <c r="E2" t="n">
-        <v>91114.5</v>
+        <v>42022.75</v>
       </c>
       <c r="F2" t="n">
-        <v>90921.12</v>
+        <v>45153</v>
       </c>
       <c r="G2" t="n">
-        <v>91092.96000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90875.52</v>
-      </c>
-      <c r="I2" t="n">
-        <v>67067.96000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>67088.86</v>
-      </c>
-      <c r="K2" t="n">
-        <v>55188.78</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41884.36</v>
-      </c>
-      <c r="M2" t="n">
-        <v>42035.07</v>
+        <v>45088.53</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221482.79</v>
+        <v>229450.13</v>
       </c>
       <c r="C3" t="n">
-        <v>221434.51</v>
+        <v>229265.12</v>
       </c>
       <c r="D3" t="n">
-        <v>220975.3</v>
+        <v>238691.58</v>
       </c>
       <c r="E3" t="n">
-        <v>232291.21</v>
+        <v>228919.9</v>
       </c>
       <c r="F3" t="n">
-        <v>232861.83</v>
+        <v>228913.47</v>
       </c>
       <c r="G3" t="n">
-        <v>232381.31</v>
-      </c>
-      <c r="H3" t="n">
-        <v>214446.05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>215112.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>215067.41</v>
-      </c>
-      <c r="K3" t="n">
-        <v>228835.27</v>
-      </c>
-      <c r="L3" t="n">
-        <v>229357.16</v>
-      </c>
-      <c r="M3" t="n">
-        <v>229450.13</v>
+        <v>241565.04</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33856.63</v>
+        <v>33938.14</v>
       </c>
       <c r="C4" t="n">
-        <v>33872.42</v>
+        <v>33948.49</v>
       </c>
       <c r="D4" t="n">
-        <v>33836.25</v>
+        <v>35385.86</v>
       </c>
       <c r="E4" t="n">
-        <v>33868</v>
+        <v>33971.48</v>
       </c>
       <c r="F4" t="n">
-        <v>33827.49</v>
+        <v>33824.12</v>
       </c>
       <c r="G4" t="n">
-        <v>33964.16</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33958.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33883.97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33838.99</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33944.59</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33951.14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33938.14</v>
+        <v>33828.98</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39693.41</v>
+        <v>39727.06</v>
       </c>
       <c r="C5" t="n">
-        <v>39548.23</v>
+        <v>39573.21</v>
       </c>
       <c r="D5" t="n">
-        <v>39592.7</v>
+        <v>41222.95</v>
       </c>
       <c r="E5" t="n">
-        <v>39678.97</v>
+        <v>39725.28</v>
       </c>
       <c r="F5" t="n">
-        <v>39552.78</v>
+        <v>39551.99</v>
       </c>
       <c r="G5" t="n">
-        <v>39627.94</v>
-      </c>
-      <c r="H5" t="n">
-        <v>39658.65</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39513.34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39662.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39718.26</v>
-      </c>
-      <c r="L5" t="n">
-        <v>39545.64</v>
-      </c>
-      <c r="M5" t="n">
-        <v>39727.06</v>
+        <v>39647.53</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102320.15</v>
+        <v>46096.92</v>
       </c>
       <c r="C6" t="n">
-        <v>102067.37</v>
+        <v>46218.83</v>
       </c>
       <c r="D6" t="n">
-        <v>102391.4</v>
+        <v>47686.73</v>
       </c>
       <c r="E6" t="n">
-        <v>102396.12</v>
+        <v>45789.17</v>
       </c>
       <c r="F6" t="n">
-        <v>102411.48</v>
+        <v>46162.3</v>
       </c>
       <c r="G6" t="n">
-        <v>102400.23</v>
-      </c>
-      <c r="H6" t="n">
-        <v>102224.83</v>
-      </c>
-      <c r="I6" t="n">
-        <v>102123.37</v>
-      </c>
-      <c r="J6" t="n">
-        <v>102291.54</v>
-      </c>
-      <c r="K6" t="n">
-        <v>102097.85</v>
-      </c>
-      <c r="L6" t="n">
-        <v>45843.94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>46096.92</v>
+        <v>46268.11</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40361.7</v>
+        <v>39614.21</v>
       </c>
       <c r="C7" t="n">
-        <v>40122.64</v>
+        <v>39931.47</v>
       </c>
       <c r="D7" t="n">
-        <v>39902.99</v>
+        <v>41099.85</v>
       </c>
       <c r="E7" t="n">
-        <v>39865.47</v>
+        <v>40080.62</v>
       </c>
       <c r="F7" t="n">
-        <v>40163.99</v>
+        <v>40079.28</v>
       </c>
       <c r="G7" t="n">
-        <v>40101.38</v>
-      </c>
-      <c r="H7" t="n">
-        <v>39422.84</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40008.13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>40201.95</v>
-      </c>
-      <c r="K7" t="n">
-        <v>39410.88</v>
-      </c>
-      <c r="L7" t="n">
-        <v>39449.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>39614.21</v>
+        <v>39624.17</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>926.46</v>
+        <v>905.35</v>
       </c>
       <c r="C8" t="n">
-        <v>919.9</v>
+        <v>918.51</v>
       </c>
       <c r="D8" t="n">
-        <v>922.3</v>
+        <v>946.75</v>
       </c>
       <c r="E8" t="n">
-        <v>936.3099999999999</v>
+        <v>927.8</v>
       </c>
       <c r="F8" t="n">
-        <v>950.3099999999999</v>
+        <v>900.39</v>
       </c>
       <c r="G8" t="n">
-        <v>951.46</v>
-      </c>
-      <c r="H8" t="n">
-        <v>913.28</v>
-      </c>
-      <c r="I8" t="n">
-        <v>922.85</v>
-      </c>
-      <c r="J8" t="n">
-        <v>964.46</v>
-      </c>
-      <c r="K8" t="n">
-        <v>954.61</v>
-      </c>
-      <c r="L8" t="n">
-        <v>952.61</v>
-      </c>
-      <c r="M8" t="n">
-        <v>905.35</v>
+        <v>955.92</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12914.81</v>
+        <v>1530.43</v>
       </c>
       <c r="C9" t="n">
-        <v>12915.65</v>
+        <v>1531.15</v>
       </c>
       <c r="D9" t="n">
-        <v>12909.58</v>
+        <v>1590.03</v>
       </c>
       <c r="E9" t="n">
-        <v>12927.23</v>
+        <v>1529.83</v>
       </c>
       <c r="F9" t="n">
-        <v>12941.05</v>
+        <v>1533.77</v>
       </c>
       <c r="G9" t="n">
-        <v>12922.59</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12942.69</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12949.95</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12930.51</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1529.37</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1533.86</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1530.43</v>
+        <v>1534.29</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4018.68</v>
+        <v>4022.44</v>
       </c>
       <c r="C10" t="n">
-        <v>4015.65</v>
+        <v>4002.47</v>
       </c>
       <c r="D10" t="n">
-        <v>3986.27</v>
+        <v>4162.39</v>
       </c>
       <c r="E10" t="n">
-        <v>4012.18</v>
+        <v>3983.84</v>
       </c>
       <c r="F10" t="n">
-        <v>4006.16</v>
+        <v>3982</v>
       </c>
       <c r="G10" t="n">
-        <v>3983.45</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4004.94</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3988.47</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3989.34</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4021.26</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4014.44</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4022.44</v>
+        <v>3997.42</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280311.9</v>
+        <v>238048.94</v>
       </c>
       <c r="C11" t="n">
-        <v>280821.21</v>
+        <v>224453.79</v>
       </c>
       <c r="D11" t="n">
-        <v>329236.66</v>
+        <v>229229.3</v>
       </c>
       <c r="E11" t="n">
-        <v>393334.32</v>
+        <v>172923.49</v>
       </c>
       <c r="F11" t="n">
-        <v>432647.09</v>
+        <v>173115.55</v>
       </c>
       <c r="G11" t="n">
-        <v>457099.51</v>
-      </c>
-      <c r="H11" t="n">
-        <v>457842.23</v>
-      </c>
-      <c r="I11" t="n">
-        <v>457345.76</v>
-      </c>
-      <c r="J11" t="n">
-        <v>436206.33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>398738.24</v>
-      </c>
-      <c r="L11" t="n">
-        <v>312630.05</v>
-      </c>
-      <c r="M11" t="n">
-        <v>238048.94</v>
+        <v>174542.17</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>395513.04</v>
+        <v>382199.72</v>
       </c>
       <c r="C12" t="n">
-        <v>397251.87</v>
+        <v>380472.17</v>
       </c>
       <c r="D12" t="n">
-        <v>396406.47</v>
+        <v>392119.9</v>
       </c>
       <c r="E12" t="n">
-        <v>397568.75</v>
+        <v>374476.15</v>
       </c>
       <c r="F12" t="n">
-        <v>397578.58</v>
+        <v>375499.53</v>
       </c>
       <c r="G12" t="n">
-        <v>397257.51</v>
-      </c>
-      <c r="H12" t="n">
-        <v>395953.91</v>
-      </c>
-      <c r="I12" t="n">
-        <v>396505.51</v>
-      </c>
-      <c r="J12" t="n">
-        <v>396113.74</v>
-      </c>
-      <c r="K12" t="n">
-        <v>392253.27</v>
-      </c>
-      <c r="L12" t="n">
-        <v>391911.46</v>
-      </c>
-      <c r="M12" t="n">
-        <v>382199.72</v>
+        <v>374363.49</v>
       </c>
     </row>
     <row r="13">
@@ -975,38 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15851.39</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>38331.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39729.07</v>
+      </c>
       <c r="D13" t="n">
-        <v>38879.91</v>
+        <v>39905.85</v>
       </c>
       <c r="E13" t="n">
-        <v>39117.91</v>
+        <v>38955.71</v>
       </c>
       <c r="F13" t="n">
-        <v>39845.74</v>
+        <v>39681.65</v>
       </c>
       <c r="G13" t="n">
-        <v>39243.18</v>
-      </c>
-      <c r="H13" t="n">
-        <v>38768.45</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39459.84</v>
-      </c>
-      <c r="J13" t="n">
-        <v>39690.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>39633.89</v>
-      </c>
-      <c r="L13" t="n">
-        <v>39158.8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>38331.33</v>
+        <v>38681.83</v>
       </c>
     </row>
     <row r="14">
@@ -1016,38 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30315.27</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>67668.21000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67031.91</v>
+      </c>
       <c r="D14" t="n">
-        <v>67350</v>
+        <v>69972.12</v>
       </c>
       <c r="E14" t="n">
-        <v>67383.12</v>
+        <v>67270.09</v>
       </c>
       <c r="F14" t="n">
-        <v>67252.46000000001</v>
+        <v>67406.14999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>67150.17999999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>67264.96000000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>67061.73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>67260.89</v>
-      </c>
-      <c r="K14" t="n">
-        <v>67407.84</v>
-      </c>
-      <c r="L14" t="n">
-        <v>67523.8</v>
-      </c>
-      <c r="M14" t="n">
-        <v>67668.21000000001</v>
+        <v>67112.64999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1057,38 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1583.9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>1575.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1573.82</v>
+      </c>
       <c r="D15" t="n">
-        <v>1579.26</v>
+        <v>1639.75</v>
       </c>
       <c r="E15" t="n">
-        <v>1579.25</v>
+        <v>1581.09</v>
       </c>
       <c r="F15" t="n">
-        <v>1579.8</v>
+        <v>1581.28</v>
       </c>
       <c r="G15" t="n">
-        <v>1580.41</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1577.76</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1578.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1577.54</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1578.84</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1577.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1575.3</v>
+        <v>1585.22</v>
       </c>
     </row>
     <row r="16">
@@ -1098,38 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5273.87</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>5277.85</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5278.52</v>
+      </c>
       <c r="D16" t="n">
-        <v>5277.33</v>
+        <v>5485.6</v>
       </c>
       <c r="E16" t="n">
-        <v>5274.79</v>
+        <v>5280.29</v>
       </c>
       <c r="F16" t="n">
-        <v>5273.01</v>
+        <v>5266.57</v>
       </c>
       <c r="G16" t="n">
-        <v>5269.08</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5268.92</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5279.66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5271.12</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5270.94</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5272.98</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5277.85</v>
+        <v>5280.5</v>
       </c>
     </row>
     <row r="17">
@@ -1139,38 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22206.95</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>21368.56</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22456.31</v>
+      </c>
       <c r="D17" t="n">
-        <v>21866.9</v>
+        <v>22024.15</v>
       </c>
       <c r="E17" t="n">
-        <v>21478.6</v>
+        <v>22183.78</v>
       </c>
       <c r="F17" t="n">
-        <v>21302.22</v>
+        <v>22465.13</v>
       </c>
       <c r="G17" t="n">
-        <v>21597.87</v>
-      </c>
-      <c r="H17" t="n">
-        <v>21994.46</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21206.06</v>
-      </c>
-      <c r="J17" t="n">
-        <v>22362.49</v>
-      </c>
-      <c r="K17" t="n">
-        <v>21582.22</v>
-      </c>
-      <c r="L17" t="n">
-        <v>22442.64</v>
-      </c>
-      <c r="M17" t="n">
-        <v>21368.56</v>
+        <v>22417.52</v>
       </c>
     </row>
     <row r="18">
@@ -1180,38 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>144020.68</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>105780.43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>105687.11</v>
+      </c>
       <c r="D18" t="n">
-        <v>151258.59</v>
+        <v>109822.46</v>
       </c>
       <c r="E18" t="n">
-        <v>162193.04</v>
+        <v>105434.98</v>
       </c>
       <c r="F18" t="n">
-        <v>171839.69</v>
+        <v>105692.85</v>
       </c>
       <c r="G18" t="n">
-        <v>171646.89</v>
-      </c>
-      <c r="H18" t="n">
-        <v>171987.55</v>
-      </c>
-      <c r="I18" t="n">
-        <v>164504.71</v>
-      </c>
-      <c r="J18" t="n">
-        <v>146944.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>147358.41</v>
-      </c>
-      <c r="L18" t="n">
-        <v>123461.71</v>
-      </c>
-      <c r="M18" t="n">
-        <v>105780.43</v>
+        <v>114394.59</v>
       </c>
     </row>
     <row r="19">
@@ -1221,38 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139005.78</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>99847.61</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100115.68</v>
+      </c>
       <c r="D19" t="n">
-        <v>154335.37</v>
+        <v>104017.91</v>
       </c>
       <c r="E19" t="n">
-        <v>156410.53</v>
+        <v>99932.39</v>
       </c>
       <c r="F19" t="n">
-        <v>158183.15</v>
+        <v>99544.74000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>156201.32</v>
-      </c>
-      <c r="H19" t="n">
-        <v>156021.26</v>
-      </c>
-      <c r="I19" t="n">
-        <v>138099.91</v>
-      </c>
-      <c r="J19" t="n">
-        <v>129246.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>129627.78</v>
-      </c>
-      <c r="L19" t="n">
-        <v>105846.31</v>
-      </c>
-      <c r="M19" t="n">
-        <v>99847.61</v>
+        <v>107107.37</v>
       </c>
     </row>
     <row r="20">
@@ -1262,38 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>229261.36</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>251210.48</v>
+      </c>
+      <c r="C20" t="n">
+        <v>251533.16</v>
+      </c>
       <c r="D20" t="n">
-        <v>232818.67</v>
+        <v>261216.67</v>
       </c>
       <c r="E20" t="n">
-        <v>269022.46</v>
+        <v>247966</v>
       </c>
       <c r="F20" t="n">
-        <v>267160.82</v>
+        <v>254955.07</v>
       </c>
       <c r="G20" t="n">
-        <v>268101.87</v>
-      </c>
-      <c r="H20" t="n">
-        <v>267342.63</v>
-      </c>
-      <c r="I20" t="n">
-        <v>264658.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>265696.28</v>
-      </c>
-      <c r="K20" t="n">
-        <v>260460.06</v>
-      </c>
-      <c r="L20" t="n">
-        <v>257137.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>251210.48</v>
+        <v>259316.74</v>
       </c>
     </row>
     <row r="21">
@@ -1303,40 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110452.16</v>
+        <v>117965.78</v>
       </c>
       <c r="C21" t="n">
-        <v>113029.57</v>
+        <v>117855.04</v>
       </c>
       <c r="D21" t="n">
-        <v>118132.82</v>
+        <v>122878.85</v>
       </c>
       <c r="E21" t="n">
-        <v>118258.57</v>
+        <v>118181.66</v>
       </c>
       <c r="F21" t="n">
-        <v>118030.6</v>
+        <v>117925.74</v>
       </c>
       <c r="G21" t="n">
-        <v>117752.13</v>
-      </c>
-      <c r="H21" t="n">
-        <v>117996.79</v>
-      </c>
-      <c r="I21" t="n">
-        <v>118037.94</v>
-      </c>
-      <c r="J21" t="n">
-        <v>118483.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>118431.26</v>
-      </c>
-      <c r="L21" t="n">
-        <v>117778.57</v>
-      </c>
-      <c r="M21" t="n">
-        <v>117965.78</v>
+        <v>115845.51</v>
       </c>
     </row>
     <row r="22">
@@ -1346,40 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>484.7</v>
+        <v>6544.61</v>
       </c>
       <c r="C22" t="n">
-        <v>544.77</v>
+        <v>6552.09</v>
       </c>
       <c r="D22" t="n">
-        <v>549.12</v>
+        <v>6721.7</v>
       </c>
       <c r="E22" t="n">
-        <v>6457.04</v>
+        <v>6504.98</v>
       </c>
       <c r="F22" t="n">
-        <v>6520.15</v>
+        <v>6445.25</v>
       </c>
       <c r="G22" t="n">
-        <v>6514.86</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6546.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6544.47</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6541.63</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6517.62</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6442.94</v>
-      </c>
-      <c r="M22" t="n">
-        <v>6544.61</v>
+        <v>6519.89</v>
       </c>
     </row>
     <row r="23">
@@ -1389,40 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>612.96</v>
+        <v>605.53</v>
       </c>
       <c r="C23" t="n">
-        <v>613.24</v>
+        <v>595.04</v>
       </c>
       <c r="D23" t="n">
-        <v>599.9400000000001</v>
+        <v>628.8</v>
       </c>
       <c r="E23" t="n">
-        <v>596.16</v>
+        <v>596.08</v>
       </c>
       <c r="F23" t="n">
-        <v>603.88</v>
+        <v>617.5700000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>594.25</v>
-      </c>
-      <c r="H23" t="n">
-        <v>611.38</v>
-      </c>
-      <c r="I23" t="n">
-        <v>601.49</v>
-      </c>
-      <c r="J23" t="n">
-        <v>583.02</v>
-      </c>
-      <c r="K23" t="n">
-        <v>606.02</v>
-      </c>
-      <c r="L23" t="n">
-        <v>594.8200000000001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>605.53</v>
+        <v>612.37</v>
       </c>
     </row>
     <row r="24">
@@ -1432,40 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41553.33</v>
+        <v>38658.77</v>
       </c>
       <c r="C24" t="n">
-        <v>41353.04</v>
+        <v>38416.01</v>
       </c>
       <c r="D24" t="n">
-        <v>41577.84</v>
+        <v>40099.93</v>
       </c>
       <c r="E24" t="n">
-        <v>41281.3</v>
+        <v>38320.54</v>
       </c>
       <c r="F24" t="n">
-        <v>41574.76</v>
+        <v>38444.27</v>
       </c>
       <c r="G24" t="n">
-        <v>41418.37</v>
-      </c>
-      <c r="H24" t="n">
-        <v>48464.38</v>
-      </c>
-      <c r="I24" t="n">
-        <v>43430.32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>43502.61</v>
-      </c>
-      <c r="K24" t="n">
-        <v>43380.64</v>
-      </c>
-      <c r="L24" t="n">
-        <v>38433.97</v>
-      </c>
-      <c r="M24" t="n">
-        <v>38658.77</v>
+        <v>36408.94</v>
       </c>
     </row>
     <row r="25">
@@ -1475,40 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88052.3</v>
+        <v>69997.47</v>
       </c>
       <c r="C25" t="n">
-        <v>88282.33</v>
+        <v>70135.00999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>75486.55</v>
+        <v>72970</v>
       </c>
       <c r="E25" t="n">
-        <v>75429.5</v>
+        <v>70414.46000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>75383.16</v>
+        <v>70402.03</v>
       </c>
       <c r="G25" t="n">
-        <v>75176.41</v>
-      </c>
-      <c r="H25" t="n">
-        <v>75187.83</v>
-      </c>
-      <c r="I25" t="n">
-        <v>75090.48</v>
-      </c>
-      <c r="J25" t="n">
-        <v>75566.53</v>
-      </c>
-      <c r="K25" t="n">
-        <v>70618.67</v>
-      </c>
-      <c r="L25" t="n">
-        <v>70531.78</v>
-      </c>
-      <c r="M25" t="n">
-        <v>69997.47</v>
+        <v>74182.69</v>
       </c>
     </row>
     <row r="26">
@@ -1518,40 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41973.02</v>
+        <v>60861.92</v>
       </c>
       <c r="C26" t="n">
-        <v>43881.66</v>
+        <v>60721.23</v>
       </c>
       <c r="D26" t="n">
-        <v>56319.48</v>
+        <v>61302.89</v>
       </c>
       <c r="E26" t="n">
-        <v>59004.91</v>
+        <v>58569.59</v>
       </c>
       <c r="F26" t="n">
-        <v>58551.15</v>
+        <v>59607.39</v>
       </c>
       <c r="G26" t="n">
-        <v>58492.03</v>
-      </c>
-      <c r="H26" t="n">
-        <v>69396.14</v>
-      </c>
-      <c r="I26" t="n">
-        <v>69586.34</v>
-      </c>
-      <c r="J26" t="n">
-        <v>69501.50999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>69583.23</v>
-      </c>
-      <c r="L26" t="n">
-        <v>69115.84</v>
-      </c>
-      <c r="M26" t="n">
-        <v>60861.92</v>
+        <v>63103.16</v>
       </c>
     </row>
     <row r="27">
@@ -1561,40 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9787.309999999999</v>
+        <v>11183.17</v>
       </c>
       <c r="C27" t="n">
-        <v>9791.33</v>
+        <v>10677.6</v>
       </c>
       <c r="D27" t="n">
-        <v>11183.54</v>
+        <v>11083.97</v>
       </c>
       <c r="E27" t="n">
-        <v>11189.12</v>
+        <v>10675.83</v>
       </c>
       <c r="F27" t="n">
-        <v>11176.28</v>
+        <v>10683.22</v>
       </c>
       <c r="G27" t="n">
-        <v>11182.01</v>
-      </c>
-      <c r="H27" t="n">
-        <v>11178.14</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11176.02</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11178.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>11192.65</v>
-      </c>
-      <c r="L27" t="n">
-        <v>11183.08</v>
-      </c>
-      <c r="M27" t="n">
-        <v>11183.17</v>
+        <v>10682.05</v>
       </c>
     </row>
     <row r="28">
@@ -1604,40 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17694.57</v>
+        <v>17008.53</v>
       </c>
       <c r="C28" t="n">
-        <v>17683.51</v>
+        <v>17029.82</v>
       </c>
       <c r="D28" t="n">
-        <v>17611.86</v>
+        <v>17703.94</v>
       </c>
       <c r="E28" t="n">
-        <v>21963.18</v>
+        <v>16915.3</v>
       </c>
       <c r="F28" t="n">
-        <v>22081.87</v>
+        <v>17050.56</v>
       </c>
       <c r="G28" t="n">
-        <v>22045.44</v>
-      </c>
-      <c r="H28" t="n">
-        <v>22010.14</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21998.43</v>
-      </c>
-      <c r="J28" t="n">
-        <v>17098.27</v>
-      </c>
-      <c r="K28" t="n">
-        <v>17033.89</v>
-      </c>
-      <c r="L28" t="n">
-        <v>17168.84</v>
-      </c>
-      <c r="M28" t="n">
-        <v>17008.53</v>
+        <v>17061.99</v>
       </c>
     </row>
     <row r="29">
@@ -1647,40 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5379.84</v>
+        <v>15423.54</v>
       </c>
       <c r="C29" t="n">
-        <v>5349.13</v>
+        <v>15401.01</v>
       </c>
       <c r="D29" t="n">
-        <v>5381.18</v>
+        <v>16048.65</v>
       </c>
       <c r="E29" t="n">
-        <v>15500.11</v>
+        <v>15472.48</v>
       </c>
       <c r="F29" t="n">
-        <v>15416.97</v>
+        <v>15423.88</v>
       </c>
       <c r="G29" t="n">
-        <v>15450.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>15471.55</v>
-      </c>
-      <c r="I29" t="n">
-        <v>15452.19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>15402.54</v>
-      </c>
-      <c r="K29" t="n">
-        <v>15477.87</v>
-      </c>
-      <c r="L29" t="n">
-        <v>15455.62</v>
-      </c>
-      <c r="M29" t="n">
-        <v>15423.54</v>
+        <v>15481.89</v>
       </c>
     </row>
     <row r="30">
@@ -1690,40 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25504.97</v>
+        <v>22011.66</v>
       </c>
       <c r="C30" t="n">
-        <v>25435.19</v>
+        <v>21996.12</v>
       </c>
       <c r="D30" t="n">
-        <v>25525.43</v>
+        <v>22804.71</v>
       </c>
       <c r="E30" t="n">
-        <v>25447.85</v>
+        <v>12340.38</v>
       </c>
       <c r="F30" t="n">
-        <v>21924.02</v>
+        <v>12383.68</v>
       </c>
       <c r="G30" t="n">
-        <v>21982.46</v>
-      </c>
-      <c r="H30" t="n">
-        <v>21974.71</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21968.94</v>
-      </c>
-      <c r="J30" t="n">
-        <v>21964.03</v>
-      </c>
-      <c r="K30" t="n">
-        <v>21935.33</v>
-      </c>
-      <c r="L30" t="n">
-        <v>21945.63</v>
-      </c>
-      <c r="M30" t="n">
-        <v>22011.66</v>
+        <v>12299.64</v>
       </c>
     </row>
     <row r="31">
@@ -1733,38 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50379.18</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>86346.19</v>
+      </c>
+      <c r="C31" t="n">
+        <v>86406.08</v>
+      </c>
       <c r="D31" t="n">
-        <v>86500.06</v>
+        <v>89743.72</v>
       </c>
       <c r="E31" t="n">
-        <v>86505.55</v>
+        <v>86613.66</v>
       </c>
       <c r="F31" t="n">
-        <v>86477.11</v>
+        <v>86464.98</v>
       </c>
       <c r="G31" t="n">
-        <v>86426.50999999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>86338.33</v>
-      </c>
-      <c r="I31" t="n">
-        <v>86364.94</v>
-      </c>
-      <c r="J31" t="n">
-        <v>86656.17</v>
-      </c>
-      <c r="K31" t="n">
-        <v>86527.49000000001</v>
-      </c>
-      <c r="L31" t="n">
-        <v>86561.13</v>
-      </c>
-      <c r="M31" t="n">
-        <v>86346.19</v>
+        <v>86338.47</v>
       </c>
     </row>
     <row r="32">
@@ -1774,195 +1222,121 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>74989.28</v>
+        <v>124814.84</v>
       </c>
       <c r="C32" t="n">
-        <v>74852.06</v>
+        <v>124715.92</v>
       </c>
       <c r="D32" t="n">
-        <v>75029.66</v>
+        <v>129621.81</v>
       </c>
       <c r="E32" t="n">
-        <v>75145.8</v>
+        <v>124783.72</v>
       </c>
       <c r="F32" t="n">
-        <v>74839.10000000001</v>
+        <v>124832.01</v>
       </c>
       <c r="G32" t="n">
-        <v>124929.66</v>
-      </c>
-      <c r="H32" t="n">
-        <v>124979.29</v>
-      </c>
-      <c r="I32" t="n">
-        <v>125221</v>
-      </c>
-      <c r="J32" t="n">
-        <v>125222.36</v>
-      </c>
-      <c r="K32" t="n">
-        <v>124929.47</v>
-      </c>
-      <c r="L32" t="n">
-        <v>125086.88</v>
-      </c>
-      <c r="M32" t="n">
-        <v>124814.84</v>
+        <v>124812.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>84283.78999999999</v>
-      </c>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>84278.53999999999</v>
+        <v>24976.63</v>
       </c>
       <c r="D33" t="n">
-        <v>84412.44</v>
+        <v>25910.19</v>
       </c>
       <c r="E33" t="n">
-        <v>84100.37</v>
+        <v>25099.83</v>
       </c>
       <c r="F33" t="n">
-        <v>84167.75</v>
+        <v>25065.7</v>
       </c>
       <c r="G33" t="n">
-        <v>84267.87</v>
-      </c>
-      <c r="H33" t="n">
-        <v>84383.97</v>
-      </c>
-      <c r="I33" t="n">
-        <v>84071.67</v>
-      </c>
-      <c r="J33" t="n">
-        <v>84099.72</v>
-      </c>
-      <c r="K33" t="n">
-        <v>84468.42</v>
-      </c>
-      <c r="L33" t="n">
-        <v>84213.21000000001</v>
-      </c>
-      <c r="M33" t="n">
-        <v>84316.57000000001</v>
+        <v>25131.72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59443.28</v>
+        <v>84316.57000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>59509.98</v>
+        <v>84457.59</v>
       </c>
       <c r="D34" t="n">
-        <v>77366.86</v>
+        <v>87565.69</v>
       </c>
       <c r="E34" t="n">
-        <v>75822.75999999999</v>
+        <v>50860.07</v>
       </c>
       <c r="F34" t="n">
-        <v>82088.21000000001</v>
+        <v>50723.88</v>
       </c>
       <c r="G34" t="n">
-        <v>83016.49000000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>83384.00999999999</v>
-      </c>
-      <c r="I34" t="n">
-        <v>83357.37</v>
-      </c>
-      <c r="J34" t="n">
-        <v>83256.03</v>
-      </c>
-      <c r="K34" t="n">
-        <v>83146.63</v>
-      </c>
-      <c r="L34" t="n">
-        <v>83134.28</v>
-      </c>
-      <c r="M34" t="n">
-        <v>80952.25999999999</v>
+        <v>50653.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>253901.02</v>
+        <v>80952.25999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>254941.33</v>
+        <v>76516.75999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>255328.94</v>
+        <v>79339.86</v>
       </c>
       <c r="E35" t="n">
-        <v>254974.94</v>
+        <v>77362.03999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>254114.39</v>
+        <v>76307.98</v>
       </c>
       <c r="G35" t="n">
-        <v>255981.68</v>
-      </c>
-      <c r="H35" t="n">
-        <v>254640.21</v>
-      </c>
-      <c r="I35" t="n">
-        <v>253175.24</v>
-      </c>
-      <c r="J35" t="n">
-        <v>254405.01</v>
-      </c>
-      <c r="K35" t="n">
-        <v>253964.63</v>
-      </c>
-      <c r="L35" t="n">
-        <v>255527.37</v>
-      </c>
-      <c r="M35" t="n">
-        <v>255395.5</v>
+        <v>83172.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10703.51</v>
+        <v>255395.5</v>
       </c>
       <c r="C36" t="n">
-        <v>11401.7</v>
+        <v>254135.45</v>
       </c>
       <c r="D36" t="n">
-        <v>11742.18</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+        <v>242043.24</v>
+      </c>
+      <c r="E36" t="n">
+        <v>232717.67</v>
+      </c>
+      <c r="F36" t="n">
+        <v>231236.96</v>
+      </c>
+      <c r="G36" t="n">
+        <v>231621.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1971,40 +1345,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>345735.97</v>
+        <v>423707.82</v>
       </c>
       <c r="C37" t="n">
-        <v>294343.25</v>
+        <v>353627.06</v>
       </c>
       <c r="D37" t="n">
-        <v>279969.96</v>
+        <v>362713.58</v>
       </c>
       <c r="E37" t="n">
-        <v>258444.19</v>
+        <v>320564.11</v>
       </c>
       <c r="F37" t="n">
-        <v>293400.3</v>
+        <v>327828.09</v>
       </c>
       <c r="G37" t="n">
-        <v>290176.4</v>
-      </c>
-      <c r="H37" t="n">
-        <v>302740.14</v>
-      </c>
-      <c r="I37" t="n">
-        <v>317541.71</v>
-      </c>
-      <c r="J37" t="n">
-        <v>347350.09</v>
-      </c>
-      <c r="K37" t="n">
-        <v>354169.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>394928.98</v>
-      </c>
-      <c r="M37" t="n">
-        <v>423707.82</v>
+        <v>322639.57</v>
       </c>
     </row>
     <row r="38">
@@ -2014,151 +1370,72 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29963.54</v>
+        <v>30043.85</v>
       </c>
       <c r="C38" t="n">
-        <v>29933.52</v>
+        <v>29922.07</v>
       </c>
       <c r="D38" t="n">
-        <v>29998.13</v>
+        <v>31085.04</v>
       </c>
       <c r="E38" t="n">
-        <v>30052.24</v>
+        <v>30071.25</v>
       </c>
       <c r="F38" t="n">
-        <v>30018</v>
+        <v>30027.97</v>
       </c>
       <c r="G38" t="n">
-        <v>29955.01</v>
-      </c>
-      <c r="H38" t="n">
-        <v>29937.66</v>
-      </c>
-      <c r="I38" t="n">
-        <v>29976.35</v>
-      </c>
-      <c r="J38" t="n">
-        <v>30009.18</v>
-      </c>
-      <c r="K38" t="n">
-        <v>30000.9</v>
-      </c>
-      <c r="L38" t="n">
-        <v>30055.84</v>
-      </c>
-      <c r="M38" t="n">
-        <v>30043.85</v>
+        <v>30003.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>72719.12</v>
+        <v>85957.39</v>
       </c>
       <c r="C39" t="n">
-        <v>72630.53</v>
+        <v>81883.21000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>72674.14999999999</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+        <v>84055.33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77541.03</v>
+      </c>
+      <c r="F39" t="n">
+        <v>78021.08</v>
+      </c>
+      <c r="G39" t="n">
+        <v>79023.86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82156.50999999999</v>
+        <v>3094466.19</v>
       </c>
       <c r="C40" t="n">
-        <v>84146.75999999999</v>
+        <v>3029678.92</v>
       </c>
       <c r="D40" t="n">
-        <v>86058.12</v>
+        <v>3110047.36</v>
       </c>
       <c r="E40" t="n">
-        <v>91961.84</v>
+        <v>2869018.29</v>
       </c>
       <c r="F40" t="n">
-        <v>94351.85000000001</v>
+        <v>2886780</v>
       </c>
       <c r="G40" t="n">
-        <v>96331.53</v>
-      </c>
-      <c r="H40" t="n">
-        <v>96603.07000000001</v>
-      </c>
-      <c r="I40" t="n">
-        <v>95412.95</v>
-      </c>
-      <c r="J40" t="n">
-        <v>94922.94</v>
-      </c>
-      <c r="K40" t="n">
-        <v>93377.67999999999</v>
-      </c>
-      <c r="L40" t="n">
-        <v>88657.03999999999</v>
-      </c>
-      <c r="M40" t="n">
-        <v>85957.39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3121947.39</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2440256.11</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3270208.42</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3310626.35</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3396666.47</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3467935.18</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3477710.55</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3434866.17</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3417225.9</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3361596.48</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3191653.28</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3094466.19</v>
+        <v>2923882.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>79414.77</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79431.98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91292.33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91114.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90921.12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91092.96000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90875.52</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67067.96000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67088.86</v>
+      </c>
+      <c r="K2" t="n">
+        <v>55188.78</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41884.36</v>
+      </c>
+      <c r="M2" t="n">
         <v>42035.07</v>
-      </c>
-      <c r="C2" t="n">
-        <v>41821.6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43560.94</v>
-      </c>
-      <c r="E2" t="n">
-        <v>42022.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45153</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45088.53</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>221482.79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221434.51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>220975.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>232291.21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>232861.83</v>
+      </c>
+      <c r="G3" t="n">
+        <v>232381.31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>214446.05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>215112.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>215067.41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>228835.27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>229357.16</v>
+      </c>
+      <c r="M3" t="n">
         <v>229450.13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>229265.12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>238691.58</v>
-      </c>
-      <c r="E3" t="n">
-        <v>228919.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>228913.47</v>
-      </c>
-      <c r="G3" t="n">
-        <v>241565.04</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>33856.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33872.42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33836.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33868</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33827.49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33964.16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33958.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33883.97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33838.99</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33944.59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33951.14</v>
+      </c>
+      <c r="M4" t="n">
         <v>33938.14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33948.49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35385.86</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33971.48</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33824.12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33828.98</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>39693.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39548.23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39592.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39678.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>39552.78</v>
+      </c>
+      <c r="G5" t="n">
+        <v>39627.94</v>
+      </c>
+      <c r="H5" t="n">
+        <v>39658.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39513.34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>39662.95</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39718.26</v>
+      </c>
+      <c r="L5" t="n">
+        <v>39545.64</v>
+      </c>
+      <c r="M5" t="n">
         <v>39727.06</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39573.21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41222.95</v>
-      </c>
-      <c r="E5" t="n">
-        <v>39725.28</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39551.99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>39647.53</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>102320.15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102067.37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>102391.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>102396.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>102411.48</v>
+      </c>
+      <c r="G6" t="n">
+        <v>102400.23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>102224.83</v>
+      </c>
+      <c r="I6" t="n">
+        <v>102123.37</v>
+      </c>
+      <c r="J6" t="n">
+        <v>102291.54</v>
+      </c>
+      <c r="K6" t="n">
+        <v>102097.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>45843.94</v>
+      </c>
+      <c r="M6" t="n">
         <v>46096.92</v>
-      </c>
-      <c r="C6" t="n">
-        <v>46218.83</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47686.73</v>
-      </c>
-      <c r="E6" t="n">
-        <v>45789.17</v>
-      </c>
-      <c r="F6" t="n">
-        <v>46162.3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46268.11</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>40361.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40122.64</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39902.99</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39865.47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40163.99</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40101.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>39422.84</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40008.13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40201.95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>39410.88</v>
+      </c>
+      <c r="L7" t="n">
+        <v>39449.2</v>
+      </c>
+      <c r="M7" t="n">
         <v>39614.21</v>
-      </c>
-      <c r="C7" t="n">
-        <v>39931.47</v>
-      </c>
-      <c r="D7" t="n">
-        <v>41099.85</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40080.62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40079.28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>39624.17</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>926.46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>919.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>922.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>936.3099999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>950.3099999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>951.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>913.28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>922.85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>964.46</v>
+      </c>
+      <c r="K8" t="n">
+        <v>954.61</v>
+      </c>
+      <c r="L8" t="n">
+        <v>952.61</v>
+      </c>
+      <c r="M8" t="n">
         <v>905.35</v>
-      </c>
-      <c r="C8" t="n">
-        <v>918.51</v>
-      </c>
-      <c r="D8" t="n">
-        <v>946.75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>927.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>900.39</v>
-      </c>
-      <c r="G8" t="n">
-        <v>955.92</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>12914.81</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12915.65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12909.58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12927.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12941.05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12922.59</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12942.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12949.95</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12930.51</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1529.37</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1533.86</v>
+      </c>
+      <c r="M9" t="n">
         <v>1530.43</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1531.15</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1590.03</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1529.83</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1533.77</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1534.29</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>4018.68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4015.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3986.27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4012.18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4006.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3983.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4004.94</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3988.47</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3989.34</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4021.26</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4014.44</v>
+      </c>
+      <c r="M10" t="n">
         <v>4022.44</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4002.47</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4162.39</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3983.84</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3982</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3997.42</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>280311.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>280821.21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>329236.66</v>
+      </c>
+      <c r="E11" t="n">
+        <v>393334.32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>432647.09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>457099.51</v>
+      </c>
+      <c r="H11" t="n">
+        <v>457842.23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>457345.76</v>
+      </c>
+      <c r="J11" t="n">
+        <v>436206.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>398738.24</v>
+      </c>
+      <c r="L11" t="n">
+        <v>312630.05</v>
+      </c>
+      <c r="M11" t="n">
         <v>238048.94</v>
-      </c>
-      <c r="C11" t="n">
-        <v>224453.79</v>
-      </c>
-      <c r="D11" t="n">
-        <v>229229.3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>172923.49</v>
-      </c>
-      <c r="F11" t="n">
-        <v>173115.55</v>
-      </c>
-      <c r="G11" t="n">
-        <v>174542.17</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>395513.04</v>
+      </c>
+      <c r="C12" t="n">
+        <v>397251.87</v>
+      </c>
+      <c r="D12" t="n">
+        <v>396406.47</v>
+      </c>
+      <c r="E12" t="n">
+        <v>397568.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>397578.58</v>
+      </c>
+      <c r="G12" t="n">
+        <v>397257.51</v>
+      </c>
+      <c r="H12" t="n">
+        <v>395953.91</v>
+      </c>
+      <c r="I12" t="n">
+        <v>396505.51</v>
+      </c>
+      <c r="J12" t="n">
+        <v>396113.74</v>
+      </c>
+      <c r="K12" t="n">
+        <v>392253.27</v>
+      </c>
+      <c r="L12" t="n">
+        <v>391911.46</v>
+      </c>
+      <c r="M12" t="n">
         <v>382199.72</v>
-      </c>
-      <c r="C12" t="n">
-        <v>380472.17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>392119.9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>374476.15</v>
-      </c>
-      <c r="F12" t="n">
-        <v>375499.53</v>
-      </c>
-      <c r="G12" t="n">
-        <v>374363.49</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,38 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>15851.39</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>38879.91</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39117.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>39845.74</v>
+      </c>
+      <c r="G13" t="n">
+        <v>39243.18</v>
+      </c>
+      <c r="H13" t="n">
+        <v>38768.45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39459.84</v>
+      </c>
+      <c r="J13" t="n">
+        <v>39690.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>39633.89</v>
+      </c>
+      <c r="L13" t="n">
+        <v>39158.8</v>
+      </c>
+      <c r="M13" t="n">
         <v>38331.33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>39729.07</v>
-      </c>
-      <c r="D13" t="n">
-        <v>39905.85</v>
-      </c>
-      <c r="E13" t="n">
-        <v>38955.71</v>
-      </c>
-      <c r="F13" t="n">
-        <v>39681.65</v>
-      </c>
-      <c r="G13" t="n">
-        <v>38681.83</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1016,38 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>30315.27</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E14" t="n">
+        <v>67383.12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>67252.46000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>67150.17999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>67264.96000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>67061.73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>67260.89</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67407.84</v>
+      </c>
+      <c r="L14" t="n">
+        <v>67523.8</v>
+      </c>
+      <c r="M14" t="n">
         <v>67668.21000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>67031.91</v>
-      </c>
-      <c r="D14" t="n">
-        <v>69972.12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>67270.09</v>
-      </c>
-      <c r="F14" t="n">
-        <v>67406.14999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>67112.64999999999</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1057,38 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>1583.9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1579.26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1579.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1579.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1580.41</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1577.76</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1578.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1577.54</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1578.84</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1577.1</v>
+      </c>
+      <c r="M15" t="n">
         <v>1575.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1573.82</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1639.75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1581.09</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1581.28</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1585.22</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1098,38 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>5273.87</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5277.33</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5274.79</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5273.01</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5269.08</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5268.92</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5279.66</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5271.12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5270.94</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5272.98</v>
+      </c>
+      <c r="M16" t="n">
         <v>5277.85</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5278.52</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5485.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5280.29</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5266.57</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5280.5</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1139,38 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>22206.95</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>21866.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21478.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21302.22</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21597.87</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21994.46</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21206.06</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22362.49</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21582.22</v>
+      </c>
+      <c r="L17" t="n">
+        <v>22442.64</v>
+      </c>
+      <c r="M17" t="n">
         <v>21368.56</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22456.31</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22024.15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22183.78</v>
-      </c>
-      <c r="F17" t="n">
-        <v>22465.13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>22417.52</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1180,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>144020.68</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>151258.59</v>
+      </c>
+      <c r="E18" t="n">
+        <v>162193.04</v>
+      </c>
+      <c r="F18" t="n">
+        <v>171839.69</v>
+      </c>
+      <c r="G18" t="n">
+        <v>171646.89</v>
+      </c>
+      <c r="H18" t="n">
+        <v>171987.55</v>
+      </c>
+      <c r="I18" t="n">
+        <v>164504.71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>146944.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>147358.41</v>
+      </c>
+      <c r="L18" t="n">
+        <v>123461.71</v>
+      </c>
+      <c r="M18" t="n">
         <v>105780.43</v>
-      </c>
-      <c r="C18" t="n">
-        <v>105687.11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>109822.46</v>
-      </c>
-      <c r="E18" t="n">
-        <v>105434.98</v>
-      </c>
-      <c r="F18" t="n">
-        <v>105692.85</v>
-      </c>
-      <c r="G18" t="n">
-        <v>114394.59</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1221,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>139005.78</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>154335.37</v>
+      </c>
+      <c r="E19" t="n">
+        <v>156410.53</v>
+      </c>
+      <c r="F19" t="n">
+        <v>158183.15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>156201.32</v>
+      </c>
+      <c r="H19" t="n">
+        <v>156021.26</v>
+      </c>
+      <c r="I19" t="n">
+        <v>138099.91</v>
+      </c>
+      <c r="J19" t="n">
+        <v>129246.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>129627.78</v>
+      </c>
+      <c r="L19" t="n">
+        <v>105846.31</v>
+      </c>
+      <c r="M19" t="n">
         <v>99847.61</v>
-      </c>
-      <c r="C19" t="n">
-        <v>100115.68</v>
-      </c>
-      <c r="D19" t="n">
-        <v>104017.91</v>
-      </c>
-      <c r="E19" t="n">
-        <v>99932.39</v>
-      </c>
-      <c r="F19" t="n">
-        <v>99544.74000000001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>107107.37</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1262,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>229261.36</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>232818.67</v>
+      </c>
+      <c r="E20" t="n">
+        <v>269022.46</v>
+      </c>
+      <c r="F20" t="n">
+        <v>267160.82</v>
+      </c>
+      <c r="G20" t="n">
+        <v>268101.87</v>
+      </c>
+      <c r="H20" t="n">
+        <v>267342.63</v>
+      </c>
+      <c r="I20" t="n">
+        <v>264658.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>265696.28</v>
+      </c>
+      <c r="K20" t="n">
+        <v>260460.06</v>
+      </c>
+      <c r="L20" t="n">
+        <v>257137.3</v>
+      </c>
+      <c r="M20" t="n">
         <v>251210.48</v>
-      </c>
-      <c r="C20" t="n">
-        <v>251533.16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>261216.67</v>
-      </c>
-      <c r="E20" t="n">
-        <v>247966</v>
-      </c>
-      <c r="F20" t="n">
-        <v>254955.07</v>
-      </c>
-      <c r="G20" t="n">
-        <v>259316.74</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1303,40 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>110452.16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>113029.57</v>
+      </c>
+      <c r="D21" t="n">
+        <v>118132.82</v>
+      </c>
+      <c r="E21" t="n">
+        <v>118258.57</v>
+      </c>
+      <c r="F21" t="n">
+        <v>118030.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>117752.13</v>
+      </c>
+      <c r="H21" t="n">
+        <v>117996.79</v>
+      </c>
+      <c r="I21" t="n">
+        <v>118037.94</v>
+      </c>
+      <c r="J21" t="n">
+        <v>118483.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>118431.26</v>
+      </c>
+      <c r="L21" t="n">
+        <v>117778.57</v>
+      </c>
+      <c r="M21" t="n">
         <v>117965.78</v>
-      </c>
-      <c r="C21" t="n">
-        <v>117855.04</v>
-      </c>
-      <c r="D21" t="n">
-        <v>122878.85</v>
-      </c>
-      <c r="E21" t="n">
-        <v>118181.66</v>
-      </c>
-      <c r="F21" t="n">
-        <v>117925.74</v>
-      </c>
-      <c r="G21" t="n">
-        <v>115845.51</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1346,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>484.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>544.77</v>
+      </c>
+      <c r="D22" t="n">
+        <v>549.12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6457.04</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6520.15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6514.86</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6546.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6544.47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6541.63</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6517.62</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6442.94</v>
+      </c>
+      <c r="M22" t="n">
         <v>6544.61</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6552.09</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6721.7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6504.98</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6445.25</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6519.89</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1389,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>612.96</v>
+      </c>
+      <c r="C23" t="n">
+        <v>613.24</v>
+      </c>
+      <c r="D23" t="n">
+        <v>599.9400000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>596.16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>603.88</v>
+      </c>
+      <c r="G23" t="n">
+        <v>594.25</v>
+      </c>
+      <c r="H23" t="n">
+        <v>611.38</v>
+      </c>
+      <c r="I23" t="n">
+        <v>601.49</v>
+      </c>
+      <c r="J23" t="n">
+        <v>583.02</v>
+      </c>
+      <c r="K23" t="n">
+        <v>606.02</v>
+      </c>
+      <c r="L23" t="n">
+        <v>594.8200000000001</v>
+      </c>
+      <c r="M23" t="n">
         <v>605.53</v>
-      </c>
-      <c r="C23" t="n">
-        <v>595.04</v>
-      </c>
-      <c r="D23" t="n">
-        <v>628.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>596.08</v>
-      </c>
-      <c r="F23" t="n">
-        <v>617.5700000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>612.37</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1432,40 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>41553.33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>41353.04</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41577.84</v>
+      </c>
+      <c r="E24" t="n">
+        <v>41281.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>41574.76</v>
+      </c>
+      <c r="G24" t="n">
+        <v>41418.37</v>
+      </c>
+      <c r="H24" t="n">
+        <v>48464.38</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43430.32</v>
+      </c>
+      <c r="J24" t="n">
+        <v>43502.61</v>
+      </c>
+      <c r="K24" t="n">
+        <v>43380.64</v>
+      </c>
+      <c r="L24" t="n">
+        <v>38433.97</v>
+      </c>
+      <c r="M24" t="n">
         <v>38658.77</v>
-      </c>
-      <c r="C24" t="n">
-        <v>38416.01</v>
-      </c>
-      <c r="D24" t="n">
-        <v>40099.93</v>
-      </c>
-      <c r="E24" t="n">
-        <v>38320.54</v>
-      </c>
-      <c r="F24" t="n">
-        <v>38444.27</v>
-      </c>
-      <c r="G24" t="n">
-        <v>36408.94</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1475,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>88052.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>88282.33</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75486.55</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75429.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>75383.16</v>
+      </c>
+      <c r="G25" t="n">
+        <v>75176.41</v>
+      </c>
+      <c r="H25" t="n">
+        <v>75187.83</v>
+      </c>
+      <c r="I25" t="n">
+        <v>75090.48</v>
+      </c>
+      <c r="J25" t="n">
+        <v>75566.53</v>
+      </c>
+      <c r="K25" t="n">
+        <v>70618.67</v>
+      </c>
+      <c r="L25" t="n">
+        <v>70531.78</v>
+      </c>
+      <c r="M25" t="n">
         <v>69997.47</v>
-      </c>
-      <c r="C25" t="n">
-        <v>70135.00999999999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>72970</v>
-      </c>
-      <c r="E25" t="n">
-        <v>70414.46000000001</v>
-      </c>
-      <c r="F25" t="n">
-        <v>70402.03</v>
-      </c>
-      <c r="G25" t="n">
-        <v>74182.69</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1518,40 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>41973.02</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43881.66</v>
+      </c>
+      <c r="D26" t="n">
+        <v>56319.48</v>
+      </c>
+      <c r="E26" t="n">
+        <v>59004.91</v>
+      </c>
+      <c r="F26" t="n">
+        <v>58551.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>58492.03</v>
+      </c>
+      <c r="H26" t="n">
+        <v>69396.14</v>
+      </c>
+      <c r="I26" t="n">
+        <v>69586.34</v>
+      </c>
+      <c r="J26" t="n">
+        <v>69501.50999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>69583.23</v>
+      </c>
+      <c r="L26" t="n">
+        <v>69115.84</v>
+      </c>
+      <c r="M26" t="n">
         <v>60861.92</v>
-      </c>
-      <c r="C26" t="n">
-        <v>60721.23</v>
-      </c>
-      <c r="D26" t="n">
-        <v>61302.89</v>
-      </c>
-      <c r="E26" t="n">
-        <v>58569.59</v>
-      </c>
-      <c r="F26" t="n">
-        <v>59607.39</v>
-      </c>
-      <c r="G26" t="n">
-        <v>63103.16</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1561,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>9787.309999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9791.33</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11183.54</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11189.12</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11176.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11182.01</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11178.14</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11176.02</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11178.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11192.65</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11183.08</v>
+      </c>
+      <c r="M27" t="n">
         <v>11183.17</v>
-      </c>
-      <c r="C27" t="n">
-        <v>10677.6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>11083.97</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10675.83</v>
-      </c>
-      <c r="F27" t="n">
-        <v>10683.22</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10682.05</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1604,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>17694.57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17683.51</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17611.86</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21963.18</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22081.87</v>
+      </c>
+      <c r="G28" t="n">
+        <v>22045.44</v>
+      </c>
+      <c r="H28" t="n">
+        <v>22010.14</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21998.43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>17098.27</v>
+      </c>
+      <c r="K28" t="n">
+        <v>17033.89</v>
+      </c>
+      <c r="L28" t="n">
+        <v>17168.84</v>
+      </c>
+      <c r="M28" t="n">
         <v>17008.53</v>
-      </c>
-      <c r="C28" t="n">
-        <v>17029.82</v>
-      </c>
-      <c r="D28" t="n">
-        <v>17703.94</v>
-      </c>
-      <c r="E28" t="n">
-        <v>16915.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>17050.56</v>
-      </c>
-      <c r="G28" t="n">
-        <v>17061.99</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1647,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>5379.84</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5349.13</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5381.18</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15500.11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15416.97</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15450.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>15471.55</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15452.19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15402.54</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15477.87</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15455.62</v>
+      </c>
+      <c r="M29" t="n">
         <v>15423.54</v>
-      </c>
-      <c r="C29" t="n">
-        <v>15401.01</v>
-      </c>
-      <c r="D29" t="n">
-        <v>16048.65</v>
-      </c>
-      <c r="E29" t="n">
-        <v>15472.48</v>
-      </c>
-      <c r="F29" t="n">
-        <v>15423.88</v>
-      </c>
-      <c r="G29" t="n">
-        <v>15481.89</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1690,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>25504.97</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25435.19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25525.43</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25447.85</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21924.02</v>
+      </c>
+      <c r="G30" t="n">
+        <v>21982.46</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21974.71</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21968.94</v>
+      </c>
+      <c r="J30" t="n">
+        <v>21964.03</v>
+      </c>
+      <c r="K30" t="n">
+        <v>21935.33</v>
+      </c>
+      <c r="L30" t="n">
+        <v>21945.63</v>
+      </c>
+      <c r="M30" t="n">
         <v>22011.66</v>
-      </c>
-      <c r="C30" t="n">
-        <v>21996.12</v>
-      </c>
-      <c r="D30" t="n">
-        <v>22804.71</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12340.38</v>
-      </c>
-      <c r="F30" t="n">
-        <v>12383.68</v>
-      </c>
-      <c r="G30" t="n">
-        <v>12299.64</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1733,38 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>50379.18</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>86500.06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>86505.55</v>
+      </c>
+      <c r="F31" t="n">
+        <v>86477.11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>86426.50999999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>86338.33</v>
+      </c>
+      <c r="I31" t="n">
+        <v>86364.94</v>
+      </c>
+      <c r="J31" t="n">
+        <v>86656.17</v>
+      </c>
+      <c r="K31" t="n">
+        <v>86527.49000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>86561.13</v>
+      </c>
+      <c r="M31" t="n">
         <v>86346.19</v>
-      </c>
-      <c r="C31" t="n">
-        <v>86406.08</v>
-      </c>
-      <c r="D31" t="n">
-        <v>89743.72</v>
-      </c>
-      <c r="E31" t="n">
-        <v>86613.66</v>
-      </c>
-      <c r="F31" t="n">
-        <v>86464.98</v>
-      </c>
-      <c r="G31" t="n">
-        <v>86338.47</v>
       </c>
     </row>
     <row r="32">
@@ -1222,121 +1774,195 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>74989.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>74852.06</v>
+      </c>
+      <c r="D32" t="n">
+        <v>75029.66</v>
+      </c>
+      <c r="E32" t="n">
+        <v>75145.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>74839.10000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>124929.66</v>
+      </c>
+      <c r="H32" t="n">
+        <v>124979.29</v>
+      </c>
+      <c r="I32" t="n">
+        <v>125221</v>
+      </c>
+      <c r="J32" t="n">
+        <v>125222.36</v>
+      </c>
+      <c r="K32" t="n">
+        <v>124929.47</v>
+      </c>
+      <c r="L32" t="n">
+        <v>125086.88</v>
+      </c>
+      <c r="M32" t="n">
         <v>124814.84</v>
-      </c>
-      <c r="C32" t="n">
-        <v>124715.92</v>
-      </c>
-      <c r="D32" t="n">
-        <v>129621.81</v>
-      </c>
-      <c r="E32" t="n">
-        <v>124783.72</v>
-      </c>
-      <c r="F32" t="n">
-        <v>124832.01</v>
-      </c>
-      <c r="G32" t="n">
-        <v>124812.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>Quinquela Acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>84283.78999999999</v>
+      </c>
       <c r="C33" t="n">
-        <v>24976.63</v>
+        <v>84278.53999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>25910.19</v>
+        <v>84412.44</v>
       </c>
       <c r="E33" t="n">
-        <v>25099.83</v>
+        <v>84100.37</v>
       </c>
       <c r="F33" t="n">
-        <v>25065.7</v>
+        <v>84167.75</v>
       </c>
       <c r="G33" t="n">
-        <v>25131.72</v>
+        <v>84267.87</v>
+      </c>
+      <c r="H33" t="n">
+        <v>84383.97</v>
+      </c>
+      <c r="I33" t="n">
+        <v>84071.67</v>
+      </c>
+      <c r="J33" t="n">
+        <v>84099.72</v>
+      </c>
+      <c r="K33" t="n">
+        <v>84468.42</v>
+      </c>
+      <c r="L33" t="n">
+        <v>84213.21000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>84316.57000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84316.57000000001</v>
+        <v>59443.28</v>
       </c>
       <c r="C34" t="n">
-        <v>84457.59</v>
+        <v>59509.98</v>
       </c>
       <c r="D34" t="n">
-        <v>87565.69</v>
+        <v>77366.86</v>
       </c>
       <c r="E34" t="n">
-        <v>50860.07</v>
+        <v>75822.75999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>50723.88</v>
+        <v>82088.21000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>50653.9</v>
+        <v>83016.49000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>83384.00999999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>83357.37</v>
+      </c>
+      <c r="J34" t="n">
+        <v>83256.03</v>
+      </c>
+      <c r="K34" t="n">
+        <v>83146.63</v>
+      </c>
+      <c r="L34" t="n">
+        <v>83134.28</v>
+      </c>
+      <c r="M34" t="n">
+        <v>80952.25999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80952.25999999999</v>
+        <v>253901.02</v>
       </c>
       <c r="C35" t="n">
-        <v>76516.75999999999</v>
+        <v>254941.33</v>
       </c>
       <c r="D35" t="n">
-        <v>79339.86</v>
+        <v>255328.94</v>
       </c>
       <c r="E35" t="n">
-        <v>77362.03999999999</v>
+        <v>254974.94</v>
       </c>
       <c r="F35" t="n">
-        <v>76307.98</v>
+        <v>254114.39</v>
       </c>
       <c r="G35" t="n">
-        <v>83172.03</v>
+        <v>255981.68</v>
+      </c>
+      <c r="H35" t="n">
+        <v>254640.21</v>
+      </c>
+      <c r="I35" t="n">
+        <v>253175.24</v>
+      </c>
+      <c r="J35" t="n">
+        <v>254405.01</v>
+      </c>
+      <c r="K35" t="n">
+        <v>253964.63</v>
+      </c>
+      <c r="L35" t="n">
+        <v>255527.37</v>
+      </c>
+      <c r="M35" t="n">
+        <v>255395.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>255395.5</v>
+        <v>10703.51</v>
       </c>
       <c r="C36" t="n">
-        <v>254135.45</v>
+        <v>11401.7</v>
       </c>
       <c r="D36" t="n">
-        <v>242043.24</v>
-      </c>
-      <c r="E36" t="n">
-        <v>232717.67</v>
-      </c>
-      <c r="F36" t="n">
-        <v>231236.96</v>
-      </c>
-      <c r="G36" t="n">
-        <v>231621.1</v>
-      </c>
+        <v>11742.18</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1345,22 +1971,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>345735.97</v>
+      </c>
+      <c r="C37" t="n">
+        <v>294343.25</v>
+      </c>
+      <c r="D37" t="n">
+        <v>279969.96</v>
+      </c>
+      <c r="E37" t="n">
+        <v>258444.19</v>
+      </c>
+      <c r="F37" t="n">
+        <v>293400.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>290176.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>302740.14</v>
+      </c>
+      <c r="I37" t="n">
+        <v>317541.71</v>
+      </c>
+      <c r="J37" t="n">
+        <v>347350.09</v>
+      </c>
+      <c r="K37" t="n">
+        <v>354169.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>394928.98</v>
+      </c>
+      <c r="M37" t="n">
         <v>423707.82</v>
-      </c>
-      <c r="C37" t="n">
-        <v>353627.06</v>
-      </c>
-      <c r="D37" t="n">
-        <v>362713.58</v>
-      </c>
-      <c r="E37" t="n">
-        <v>320564.11</v>
-      </c>
-      <c r="F37" t="n">
-        <v>327828.09</v>
-      </c>
-      <c r="G37" t="n">
-        <v>322639.57</v>
       </c>
     </row>
     <row r="38">
@@ -1370,72 +2014,151 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>29963.54</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29933.52</v>
+      </c>
+      <c r="D38" t="n">
+        <v>29998.13</v>
+      </c>
+      <c r="E38" t="n">
+        <v>30052.24</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30018</v>
+      </c>
+      <c r="G38" t="n">
+        <v>29955.01</v>
+      </c>
+      <c r="H38" t="n">
+        <v>29937.66</v>
+      </c>
+      <c r="I38" t="n">
+        <v>29976.35</v>
+      </c>
+      <c r="J38" t="n">
+        <v>30009.18</v>
+      </c>
+      <c r="K38" t="n">
+        <v>30000.9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>30055.84</v>
+      </c>
+      <c r="M38" t="n">
         <v>30043.85</v>
-      </c>
-      <c r="C38" t="n">
-        <v>29922.07</v>
-      </c>
-      <c r="D38" t="n">
-        <v>31085.04</v>
-      </c>
-      <c r="E38" t="n">
-        <v>30071.25</v>
-      </c>
-      <c r="F38" t="n">
-        <v>30027.97</v>
-      </c>
-      <c r="G38" t="n">
-        <v>30003.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>85957.39</v>
+        <v>72719.12</v>
       </c>
       <c r="C39" t="n">
-        <v>81883.21000000001</v>
+        <v>72630.53</v>
       </c>
       <c r="D39" t="n">
-        <v>84055.33</v>
-      </c>
-      <c r="E39" t="n">
-        <v>77541.03</v>
-      </c>
-      <c r="F39" t="n">
-        <v>78021.08</v>
-      </c>
-      <c r="G39" t="n">
-        <v>79023.86</v>
-      </c>
+        <v>72674.14999999999</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>82156.50999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>84146.75999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>86058.12</v>
+      </c>
+      <c r="E40" t="n">
+        <v>91961.84</v>
+      </c>
+      <c r="F40" t="n">
+        <v>94351.85000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>96331.53</v>
+      </c>
+      <c r="H40" t="n">
+        <v>96603.07000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>95412.95</v>
+      </c>
+      <c r="J40" t="n">
+        <v>94922.94</v>
+      </c>
+      <c r="K40" t="n">
+        <v>93377.67999999999</v>
+      </c>
+      <c r="L40" t="n">
+        <v>88657.03999999999</v>
+      </c>
+      <c r="M40" t="n">
+        <v>85957.39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
+        <v>3121947.39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2440256.11</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3270208.42</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3310626.35</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3396666.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3467935.18</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3477710.55</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3434866.17</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3417225.9</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3361596.48</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3191653.28</v>
+      </c>
+      <c r="M41" t="n">
         <v>3094466.19</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3029678.92</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3110047.36</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2869018.29</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2886780</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2923882.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TECO2.xlsx
+++ b/backend/src/excel_handler/files/TECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79414.77</v>
+        <v>42035.07</v>
       </c>
       <c r="C2" t="n">
-        <v>79431.98</v>
+        <v>41821.6</v>
       </c>
       <c r="D2" t="n">
-        <v>91292.33</v>
+        <v>43560.94</v>
       </c>
       <c r="E2" t="n">
-        <v>91114.5</v>
+        <v>42022.75</v>
       </c>
       <c r="F2" t="n">
-        <v>90921.12</v>
+        <v>45153</v>
       </c>
       <c r="G2" t="n">
-        <v>91092.96000000001</v>
+        <v>45088.53</v>
       </c>
       <c r="H2" t="n">
-        <v>90875.52</v>
+        <v>45163.77</v>
       </c>
       <c r="I2" t="n">
-        <v>67067.96000000001</v>
+        <v>45296.86</v>
       </c>
       <c r="J2" t="n">
-        <v>67088.86</v>
+        <v>75618.36</v>
       </c>
       <c r="K2" t="n">
-        <v>55188.78</v>
+        <v>75404.09</v>
       </c>
       <c r="L2" t="n">
-        <v>41884.36</v>
+        <v>85534.78999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>42035.07</v>
+        <v>102869.58</v>
+      </c>
+      <c r="N2" t="n">
+        <v>102825.48</v>
+      </c>
+      <c r="O2" t="n">
+        <v>113570.56</v>
+      </c>
+      <c r="P2" t="n">
+        <v>116792.34</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>124864.14</v>
+      </c>
+      <c r="R2" t="n">
+        <v>132356.96</v>
+      </c>
+      <c r="S2" t="n">
+        <v>135780.54</v>
+      </c>
+      <c r="T2" t="n">
+        <v>135657.57</v>
+      </c>
+      <c r="U2" t="n">
+        <v>135287.52</v>
+      </c>
+      <c r="V2" t="n">
+        <v>143797.79</v>
+      </c>
+      <c r="W2" t="n">
+        <v>144141.79</v>
+      </c>
+      <c r="X2" t="n">
+        <v>156840.89</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>156351.35</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>144587.95</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>138596.45</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221482.79</v>
+        <v>229450.13</v>
       </c>
       <c r="C3" t="n">
-        <v>221434.51</v>
+        <v>229265.12</v>
       </c>
       <c r="D3" t="n">
-        <v>220975.3</v>
+        <v>238691.58</v>
       </c>
       <c r="E3" t="n">
-        <v>232291.21</v>
+        <v>228919.9</v>
       </c>
       <c r="F3" t="n">
-        <v>232861.83</v>
+        <v>228913.47</v>
       </c>
       <c r="G3" t="n">
-        <v>232381.31</v>
+        <v>241565.04</v>
       </c>
       <c r="H3" t="n">
-        <v>214446.05</v>
+        <v>242405.88</v>
       </c>
       <c r="I3" t="n">
-        <v>215112.55</v>
+        <v>242171.83</v>
       </c>
       <c r="J3" t="n">
-        <v>215067.41</v>
+        <v>256934.29</v>
       </c>
       <c r="K3" t="n">
-        <v>228835.27</v>
+        <v>258011.63</v>
       </c>
       <c r="L3" t="n">
-        <v>229357.16</v>
+        <v>257449.25</v>
       </c>
       <c r="M3" t="n">
-        <v>229450.13</v>
+        <v>257810.52</v>
+      </c>
+      <c r="N3" t="n">
+        <v>256873.25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>257374.59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>257768.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>257092.71</v>
+      </c>
+      <c r="R3" t="n">
+        <v>257684.98</v>
+      </c>
+      <c r="S3" t="n">
+        <v>282190.49</v>
+      </c>
+      <c r="T3" t="n">
+        <v>283131.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>263098.57</v>
+      </c>
+      <c r="V3" t="n">
+        <v>262645.52</v>
+      </c>
+      <c r="W3" t="n">
+        <v>263557.93</v>
+      </c>
+      <c r="X3" t="n">
+        <v>279629.02</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>279803.91</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>279467.43</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>279571.18</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33856.63</v>
+        <v>33938.14</v>
       </c>
       <c r="C4" t="n">
-        <v>33872.42</v>
+        <v>33948.49</v>
       </c>
       <c r="D4" t="n">
-        <v>33836.25</v>
+        <v>35385.86</v>
       </c>
       <c r="E4" t="n">
-        <v>33868</v>
+        <v>33971.48</v>
       </c>
       <c r="F4" t="n">
-        <v>33827.49</v>
+        <v>33824.12</v>
       </c>
       <c r="G4" t="n">
-        <v>33964.16</v>
+        <v>33828.98</v>
       </c>
       <c r="H4" t="n">
-        <v>33958.25</v>
+        <v>33921.73</v>
       </c>
       <c r="I4" t="n">
-        <v>33883.97</v>
+        <v>33938.6</v>
       </c>
       <c r="J4" t="n">
-        <v>33838.99</v>
+        <v>33818.53</v>
       </c>
       <c r="K4" t="n">
-        <v>33944.59</v>
+        <v>33842.48</v>
       </c>
       <c r="L4" t="n">
-        <v>33951.14</v>
+        <v>34008.66</v>
       </c>
       <c r="M4" t="n">
-        <v>33938.14</v>
+        <v>33992.34</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33954.05</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33825.68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33810.56</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>33992.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>33906.96</v>
+      </c>
+      <c r="S4" t="n">
+        <v>33773.63</v>
+      </c>
+      <c r="T4" t="n">
+        <v>33809.73</v>
+      </c>
+      <c r="U4" t="n">
+        <v>26076.31</v>
+      </c>
+      <c r="V4" t="n">
+        <v>26090.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>25962.73</v>
+      </c>
+      <c r="X4" t="n">
+        <v>25912.08</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>26059.8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26080.71</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26134.12</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39693.41</v>
+        <v>39727.06</v>
       </c>
       <c r="C5" t="n">
-        <v>39548.23</v>
+        <v>39573.21</v>
       </c>
       <c r="D5" t="n">
-        <v>39592.7</v>
+        <v>41222.95</v>
       </c>
       <c r="E5" t="n">
-        <v>39678.97</v>
+        <v>39725.28</v>
       </c>
       <c r="F5" t="n">
-        <v>39552.78</v>
+        <v>39551.99</v>
       </c>
       <c r="G5" t="n">
-        <v>39627.94</v>
+        <v>39647.53</v>
       </c>
       <c r="H5" t="n">
-        <v>39658.65</v>
+        <v>39700.95</v>
       </c>
       <c r="I5" t="n">
-        <v>39513.34</v>
+        <v>39675.09</v>
       </c>
       <c r="J5" t="n">
-        <v>39662.95</v>
+        <v>39571.54</v>
       </c>
       <c r="K5" t="n">
-        <v>39718.26</v>
+        <v>39478.03</v>
       </c>
       <c r="L5" t="n">
-        <v>39545.64</v>
+        <v>39546.52</v>
       </c>
       <c r="M5" t="n">
-        <v>39727.06</v>
+        <v>39591.7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39719.64</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39710.82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>39643.86</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>47092.31</v>
+      </c>
+      <c r="R5" t="n">
+        <v>47342.38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>47029.87</v>
+      </c>
+      <c r="T5" t="n">
+        <v>47192.61</v>
+      </c>
+      <c r="U5" t="n">
+        <v>47134.51</v>
+      </c>
+      <c r="V5" t="n">
+        <v>47217.77</v>
+      </c>
+      <c r="W5" t="n">
+        <v>101761.24</v>
+      </c>
+      <c r="X5" t="n">
+        <v>153517.27</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>153359.01</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>193489.56</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>193333.93</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102320.15</v>
+        <v>46096.92</v>
       </c>
       <c r="C6" t="n">
-        <v>102067.37</v>
+        <v>46218.83</v>
       </c>
       <c r="D6" t="n">
-        <v>102391.4</v>
+        <v>47686.73</v>
       </c>
       <c r="E6" t="n">
-        <v>102396.12</v>
+        <v>45789.17</v>
       </c>
       <c r="F6" t="n">
-        <v>102411.48</v>
+        <v>46162.3</v>
       </c>
       <c r="G6" t="n">
-        <v>102400.23</v>
+        <v>46268.11</v>
       </c>
       <c r="H6" t="n">
-        <v>102224.83</v>
+        <v>46283.04</v>
       </c>
       <c r="I6" t="n">
-        <v>102123.37</v>
+        <v>46160.8</v>
       </c>
       <c r="J6" t="n">
-        <v>102291.54</v>
+        <v>45946.38</v>
       </c>
       <c r="K6" t="n">
-        <v>102097.85</v>
+        <v>46291.09</v>
       </c>
       <c r="L6" t="n">
-        <v>45843.94</v>
+        <v>46009.17</v>
       </c>
       <c r="M6" t="n">
-        <v>46096.92</v>
+        <v>45969.92</v>
+      </c>
+      <c r="N6" t="n">
+        <v>46272.46</v>
+      </c>
+      <c r="O6" t="n">
+        <v>46039.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>46019.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>46014.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>46104.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>46090.72</v>
+      </c>
+      <c r="T6" t="n">
+        <v>45969.67</v>
+      </c>
+      <c r="U6" t="n">
+        <v>45985.71</v>
+      </c>
+      <c r="V6" t="n">
+        <v>45993.13</v>
+      </c>
+      <c r="W6" t="n">
+        <v>46389.26</v>
+      </c>
+      <c r="X6" t="n">
+        <v>45877.85</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>46051.7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>46167.92</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>46019.16</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40361.7</v>
+        <v>39614.21</v>
       </c>
       <c r="C7" t="n">
-        <v>40122.64</v>
+        <v>39931.47</v>
       </c>
       <c r="D7" t="n">
-        <v>39902.99</v>
+        <v>41099.85</v>
       </c>
       <c r="E7" t="n">
-        <v>39865.47</v>
+        <v>40080.62</v>
       </c>
       <c r="F7" t="n">
-        <v>40163.99</v>
+        <v>40079.28</v>
       </c>
       <c r="G7" t="n">
-        <v>40101.38</v>
+        <v>39624.17</v>
       </c>
       <c r="H7" t="n">
-        <v>39422.84</v>
+        <v>39828.18</v>
       </c>
       <c r="I7" t="n">
-        <v>40008.13</v>
+        <v>39976.41</v>
       </c>
       <c r="J7" t="n">
-        <v>40201.95</v>
+        <v>40061.33</v>
       </c>
       <c r="K7" t="n">
-        <v>39410.88</v>
+        <v>39548.63</v>
       </c>
       <c r="L7" t="n">
-        <v>39449.2</v>
+        <v>39771.97</v>
       </c>
       <c r="M7" t="n">
-        <v>39614.21</v>
+        <v>39548.23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39814.47</v>
+      </c>
+      <c r="O7" t="n">
+        <v>39965.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>39894.37</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>40413.74</v>
+      </c>
+      <c r="R7" t="n">
+        <v>40450.73</v>
+      </c>
+      <c r="S7" t="n">
+        <v>39544.71</v>
+      </c>
+      <c r="T7" t="n">
+        <v>40076.72</v>
+      </c>
+      <c r="U7" t="n">
+        <v>40410.88</v>
+      </c>
+      <c r="V7" t="n">
+        <v>39689.16</v>
+      </c>
+      <c r="W7" t="n">
+        <v>40271.86</v>
+      </c>
+      <c r="X7" t="n">
+        <v>40214.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>39619.84</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>39893.08</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>40326.68</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>926.46</v>
+        <v>905.35</v>
       </c>
       <c r="C8" t="n">
-        <v>919.9</v>
+        <v>918.51</v>
       </c>
       <c r="D8" t="n">
-        <v>922.3</v>
+        <v>946.75</v>
       </c>
       <c r="E8" t="n">
-        <v>936.3099999999999</v>
+        <v>927.8</v>
       </c>
       <c r="F8" t="n">
-        <v>950.3099999999999</v>
+        <v>900.39</v>
       </c>
       <c r="G8" t="n">
-        <v>951.46</v>
+        <v>955.92</v>
       </c>
       <c r="H8" t="n">
-        <v>913.28</v>
+        <v>967.09</v>
       </c>
       <c r="I8" t="n">
-        <v>922.85</v>
+        <v>941.71</v>
       </c>
       <c r="J8" t="n">
-        <v>964.46</v>
+        <v>910</v>
       </c>
       <c r="K8" t="n">
-        <v>954.61</v>
+        <v>960.88</v>
       </c>
       <c r="L8" t="n">
-        <v>952.61</v>
+        <v>966.84</v>
       </c>
       <c r="M8" t="n">
-        <v>905.35</v>
+        <v>933.28</v>
+      </c>
+      <c r="N8" t="n">
+        <v>962.24</v>
+      </c>
+      <c r="O8" t="n">
+        <v>938.76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>932.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>890.98</v>
+      </c>
+      <c r="R8" t="n">
+        <v>942.46</v>
+      </c>
+      <c r="S8" t="n">
+        <v>957.09</v>
+      </c>
+      <c r="T8" t="n">
+        <v>926.49</v>
+      </c>
+      <c r="U8" t="n">
+        <v>939.29</v>
+      </c>
+      <c r="V8" t="n">
+        <v>949.36</v>
+      </c>
+      <c r="W8" t="n">
+        <v>942.4400000000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>914.51</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>949</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>949.66</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>970.9</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12914.81</v>
+        <v>1530.43</v>
       </c>
       <c r="C9" t="n">
-        <v>12915.65</v>
+        <v>1531.15</v>
       </c>
       <c r="D9" t="n">
-        <v>12909.58</v>
+        <v>1590.03</v>
       </c>
       <c r="E9" t="n">
-        <v>12927.23</v>
+        <v>1529.83</v>
       </c>
       <c r="F9" t="n">
-        <v>12941.05</v>
+        <v>1533.77</v>
       </c>
       <c r="G9" t="n">
-        <v>12922.59</v>
+        <v>1534.29</v>
       </c>
       <c r="H9" t="n">
-        <v>12942.69</v>
+        <v>1530.21</v>
       </c>
       <c r="I9" t="n">
-        <v>12949.95</v>
+        <v>1533.55</v>
       </c>
       <c r="J9" t="n">
-        <v>12930.51</v>
+        <v>1533.24</v>
       </c>
       <c r="K9" t="n">
-        <v>1529.37</v>
+        <v>1529.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1533.86</v>
+        <v>8762.76</v>
       </c>
       <c r="M9" t="n">
-        <v>1530.43</v>
+        <v>8767.190000000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8759.76</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2906.97</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2843.31</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2844.06</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2843.63</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2842.28</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2860.04</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2849.05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2839.3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2844.61</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2839.83</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2842.56</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2842.43</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2955.06</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4018.68</v>
+        <v>4022.44</v>
       </c>
       <c r="C10" t="n">
-        <v>4015.65</v>
+        <v>4002.47</v>
       </c>
       <c r="D10" t="n">
-        <v>3986.27</v>
+        <v>4162.39</v>
       </c>
       <c r="E10" t="n">
-        <v>4012.18</v>
+        <v>3983.84</v>
       </c>
       <c r="F10" t="n">
-        <v>4006.16</v>
+        <v>3982</v>
       </c>
       <c r="G10" t="n">
-        <v>3983.45</v>
+        <v>3997.42</v>
       </c>
       <c r="H10" t="n">
-        <v>4004.94</v>
+        <v>4002.97</v>
       </c>
       <c r="I10" t="n">
-        <v>3988.47</v>
+        <v>3996.37</v>
       </c>
       <c r="J10" t="n">
-        <v>3989.34</v>
+        <v>4004.64</v>
       </c>
       <c r="K10" t="n">
-        <v>4021.26</v>
+        <v>3999.21</v>
       </c>
       <c r="L10" t="n">
-        <v>4014.44</v>
+        <v>4017.18</v>
       </c>
       <c r="M10" t="n">
-        <v>4022.44</v>
+        <v>4004.52</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4003.15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4009.84</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4021.19</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4004.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3978.68</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4016.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3996.68</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4027.71</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4016.48</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3998.27</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4000.05</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3999.03</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4012.21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4005.45</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280311.9</v>
+        <v>238048.94</v>
       </c>
       <c r="C11" t="n">
-        <v>280821.21</v>
+        <v>224453.79</v>
       </c>
       <c r="D11" t="n">
-        <v>329236.66</v>
+        <v>229229.3</v>
       </c>
       <c r="E11" t="n">
-        <v>393334.32</v>
+        <v>172923.49</v>
       </c>
       <c r="F11" t="n">
-        <v>432647.09</v>
+        <v>173115.55</v>
       </c>
       <c r="G11" t="n">
-        <v>457099.51</v>
+        <v>174542.17</v>
       </c>
       <c r="H11" t="n">
-        <v>457842.23</v>
+        <v>174777.23</v>
       </c>
       <c r="I11" t="n">
-        <v>457345.76</v>
+        <v>182963.51</v>
       </c>
       <c r="J11" t="n">
-        <v>436206.33</v>
+        <v>182696.38</v>
       </c>
       <c r="K11" t="n">
-        <v>398738.24</v>
+        <v>189161.86</v>
       </c>
       <c r="L11" t="n">
-        <v>312630.05</v>
+        <v>189171.24</v>
       </c>
       <c r="M11" t="n">
-        <v>238048.94</v>
+        <v>203984.34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>207180.55</v>
+      </c>
+      <c r="O11" t="n">
+        <v>216955.71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>225384.01</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>243288.29</v>
+      </c>
+      <c r="R11" t="n">
+        <v>243465.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>243783.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>235603.79</v>
+      </c>
+      <c r="U11" t="n">
+        <v>222937.82</v>
+      </c>
+      <c r="V11" t="n">
+        <v>231127.96</v>
+      </c>
+      <c r="W11" t="n">
+        <v>231151.49</v>
+      </c>
+      <c r="X11" t="n">
+        <v>238766.71</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>238555.48</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>247418.95</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>224143.78</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>395513.04</v>
+        <v>382199.72</v>
       </c>
       <c r="C12" t="n">
-        <v>397251.87</v>
+        <v>380472.17</v>
       </c>
       <c r="D12" t="n">
-        <v>396406.47</v>
+        <v>392119.9</v>
       </c>
       <c r="E12" t="n">
-        <v>397568.75</v>
+        <v>374476.15</v>
       </c>
       <c r="F12" t="n">
-        <v>397578.58</v>
+        <v>375499.53</v>
       </c>
       <c r="G12" t="n">
-        <v>397257.51</v>
+        <v>374363.49</v>
       </c>
       <c r="H12" t="n">
-        <v>395953.91</v>
+        <v>374466.47</v>
       </c>
       <c r="I12" t="n">
-        <v>396505.51</v>
+        <v>384109.83</v>
       </c>
       <c r="J12" t="n">
-        <v>396113.74</v>
+        <v>386384.08</v>
       </c>
       <c r="K12" t="n">
-        <v>392253.27</v>
+        <v>384987.35</v>
       </c>
       <c r="L12" t="n">
-        <v>391911.46</v>
+        <v>386467.99</v>
       </c>
       <c r="M12" t="n">
-        <v>382199.72</v>
+        <v>384087.58</v>
+      </c>
+      <c r="N12" t="n">
+        <v>384479.63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>385883.34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>385958.43</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>384774.64</v>
+      </c>
+      <c r="R12" t="n">
+        <v>384293.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>378039.83</v>
+      </c>
+      <c r="T12" t="n">
+        <v>371200.03</v>
+      </c>
+      <c r="U12" t="n">
+        <v>362728.35</v>
+      </c>
+      <c r="V12" t="n">
+        <v>363676.21</v>
+      </c>
+      <c r="W12" t="n">
+        <v>362813.78</v>
+      </c>
+      <c r="X12" t="n">
+        <v>363321.33</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>363338.03</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>352462</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>333930.23</v>
       </c>
     </row>
     <row r="13">
@@ -975,39 +1507,65 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15851.39</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>38331.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39729.07</v>
+      </c>
       <c r="D13" t="n">
-        <v>38879.91</v>
+        <v>39905.85</v>
       </c>
       <c r="E13" t="n">
-        <v>39117.91</v>
+        <v>38955.71</v>
       </c>
       <c r="F13" t="n">
-        <v>39845.74</v>
+        <v>39681.65</v>
       </c>
       <c r="G13" t="n">
-        <v>39243.18</v>
+        <v>38681.83</v>
       </c>
       <c r="H13" t="n">
-        <v>38768.45</v>
+        <v>38878.41</v>
       </c>
       <c r="I13" t="n">
-        <v>39459.84</v>
+        <v>38812.82</v>
       </c>
       <c r="J13" t="n">
-        <v>39690.75</v>
+        <v>38863.17</v>
       </c>
       <c r="K13" t="n">
-        <v>39633.89</v>
+        <v>39581.56</v>
       </c>
       <c r="L13" t="n">
-        <v>39158.8</v>
+        <v>39088.44</v>
       </c>
       <c r="M13" t="n">
-        <v>38331.33</v>
-      </c>
+        <v>38973.96</v>
+      </c>
+      <c r="N13" t="n">
+        <v>38480.47</v>
+      </c>
+      <c r="O13" t="n">
+        <v>25010.38</v>
+      </c>
+      <c r="P13" t="n">
+        <v>24949.81</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25256.45</v>
+      </c>
+      <c r="R13" t="n">
+        <v>23807.59</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1016,38 +1574,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30315.27</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>67668.21000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67031.91</v>
+      </c>
       <c r="D14" t="n">
-        <v>67350</v>
+        <v>69972.12</v>
       </c>
       <c r="E14" t="n">
-        <v>67383.12</v>
+        <v>67270.09</v>
       </c>
       <c r="F14" t="n">
-        <v>67252.46000000001</v>
+        <v>67406.14999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>67150.17999999999</v>
+        <v>67112.64999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>67264.96000000001</v>
+        <v>67542.64999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>67061.73</v>
+        <v>67650.78</v>
       </c>
       <c r="J14" t="n">
-        <v>67260.89</v>
+        <v>67066.67</v>
       </c>
       <c r="K14" t="n">
-        <v>67407.84</v>
+        <v>67378.60000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>67523.8</v>
+        <v>67055.14</v>
       </c>
       <c r="M14" t="n">
-        <v>67668.21000000001</v>
+        <v>67434.32000000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>67264.07000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>67608.71000000001</v>
+      </c>
+      <c r="P14" t="n">
+        <v>67301.44</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>67076.87</v>
+      </c>
+      <c r="R14" t="n">
+        <v>67003.59</v>
+      </c>
+      <c r="S14" t="n">
+        <v>67432.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>67820.95</v>
+      </c>
+      <c r="U14" t="n">
+        <v>30751.52</v>
+      </c>
+      <c r="V14" t="n">
+        <v>30625.01</v>
+      </c>
+      <c r="W14" t="n">
+        <v>30628</v>
+      </c>
+      <c r="X14" t="n">
+        <v>30924.48</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>30967.94</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30462.73</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>30872.34</v>
       </c>
     </row>
     <row r="15">
@@ -1057,38 +1659,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1583.9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>1575.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1573.82</v>
+      </c>
       <c r="D15" t="n">
-        <v>1579.26</v>
+        <v>1639.75</v>
       </c>
       <c r="E15" t="n">
-        <v>1579.25</v>
+        <v>1581.09</v>
       </c>
       <c r="F15" t="n">
-        <v>1579.8</v>
+        <v>1581.28</v>
       </c>
       <c r="G15" t="n">
-        <v>1580.41</v>
+        <v>1585.22</v>
       </c>
       <c r="H15" t="n">
-        <v>1577.76</v>
+        <v>1573.17</v>
       </c>
       <c r="I15" t="n">
-        <v>1578.6</v>
+        <v>1583.59</v>
       </c>
       <c r="J15" t="n">
-        <v>1577.54</v>
+        <v>1581.82</v>
       </c>
       <c r="K15" t="n">
-        <v>1578.84</v>
+        <v>1578.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1577.1</v>
+        <v>1586.64</v>
       </c>
       <c r="M15" t="n">
-        <v>1575.3</v>
+        <v>1581.23</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1585.08</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1581.78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1577.96</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1575.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1572.28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1577.38</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1573.22</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1584.69</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1575.12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1582.43</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1577.87</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1578.12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1582.24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1575.61</v>
       </c>
     </row>
     <row r="16">
@@ -1098,38 +1744,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5273.87</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>5277.85</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5278.52</v>
+      </c>
       <c r="D16" t="n">
-        <v>5277.33</v>
+        <v>5485.6</v>
       </c>
       <c r="E16" t="n">
-        <v>5274.79</v>
+        <v>5280.29</v>
       </c>
       <c r="F16" t="n">
-        <v>5273.01</v>
+        <v>5266.57</v>
       </c>
       <c r="G16" t="n">
-        <v>5269.08</v>
+        <v>5280.5</v>
       </c>
       <c r="H16" t="n">
-        <v>5268.92</v>
+        <v>5282.1</v>
       </c>
       <c r="I16" t="n">
-        <v>5279.66</v>
+        <v>5275.79</v>
       </c>
       <c r="J16" t="n">
-        <v>5271.12</v>
+        <v>5266.77</v>
       </c>
       <c r="K16" t="n">
-        <v>5270.94</v>
+        <v>5285.13</v>
       </c>
       <c r="L16" t="n">
-        <v>5272.98</v>
+        <v>5276.75</v>
       </c>
       <c r="M16" t="n">
-        <v>5277.85</v>
+        <v>5269.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5277.64</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5267.45</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5285.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5268.76</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5277.69</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5267.62</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5283.14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5279.54</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5266.37</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5282.97</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5277.47</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5283.53</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5285.66</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5270.59</v>
       </c>
     </row>
     <row r="17">
@@ -1139,38 +1829,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22206.95</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>21368.56</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22456.31</v>
+      </c>
       <c r="D17" t="n">
-        <v>21866.9</v>
+        <v>22024.15</v>
       </c>
       <c r="E17" t="n">
-        <v>21478.6</v>
+        <v>22183.78</v>
       </c>
       <c r="F17" t="n">
-        <v>21302.22</v>
+        <v>22465.13</v>
       </c>
       <c r="G17" t="n">
-        <v>21597.87</v>
+        <v>22417.52</v>
       </c>
       <c r="H17" t="n">
-        <v>21994.46</v>
+        <v>21344.23</v>
       </c>
       <c r="I17" t="n">
-        <v>21206.06</v>
+        <v>22161.98</v>
       </c>
       <c r="J17" t="n">
-        <v>22362.49</v>
+        <v>21981.29</v>
       </c>
       <c r="K17" t="n">
-        <v>21582.22</v>
+        <v>22384.25</v>
       </c>
       <c r="L17" t="n">
-        <v>22442.64</v>
+        <v>21385</v>
       </c>
       <c r="M17" t="n">
-        <v>21368.56</v>
+        <v>21856.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>21380.46</v>
+      </c>
+      <c r="O17" t="n">
+        <v>21896.09</v>
+      </c>
+      <c r="P17" t="n">
+        <v>21947.92</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>22053.81</v>
+      </c>
+      <c r="R17" t="n">
+        <v>22245.06</v>
+      </c>
+      <c r="S17" t="n">
+        <v>21299.95</v>
+      </c>
+      <c r="T17" t="n">
+        <v>22440.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>21403.41</v>
+      </c>
+      <c r="V17" t="n">
+        <v>22326.55</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21715.7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21367.52</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>21803.13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>22435.18</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21374.2</v>
       </c>
     </row>
     <row r="18">
@@ -1180,39 +1914,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>144020.68</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>105780.43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>105687.11</v>
+      </c>
       <c r="D18" t="n">
-        <v>151258.59</v>
+        <v>109822.46</v>
       </c>
       <c r="E18" t="n">
-        <v>162193.04</v>
+        <v>105434.98</v>
       </c>
       <c r="F18" t="n">
-        <v>171839.69</v>
+        <v>105692.85</v>
       </c>
       <c r="G18" t="n">
-        <v>171646.89</v>
+        <v>114394.59</v>
       </c>
       <c r="H18" t="n">
-        <v>171987.55</v>
+        <v>114316.29</v>
       </c>
       <c r="I18" t="n">
-        <v>164504.71</v>
+        <v>114103.67</v>
       </c>
       <c r="J18" t="n">
-        <v>146944.5</v>
+        <v>114290.21</v>
       </c>
       <c r="K18" t="n">
-        <v>147358.41</v>
+        <v>113835.61</v>
       </c>
       <c r="L18" t="n">
-        <v>123461.71</v>
+        <v>113993.55</v>
       </c>
       <c r="M18" t="n">
-        <v>105780.43</v>
-      </c>
+        <v>114337.18</v>
+      </c>
+      <c r="N18" t="n">
+        <v>114607.74</v>
+      </c>
+      <c r="O18" t="n">
+        <v>114097.66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>114001.37</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>75224.56</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1221,39 +1979,63 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139005.78</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>99847.61</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100115.68</v>
+      </c>
       <c r="D19" t="n">
-        <v>154335.37</v>
+        <v>104017.91</v>
       </c>
       <c r="E19" t="n">
-        <v>156410.53</v>
+        <v>99932.39</v>
       </c>
       <c r="F19" t="n">
-        <v>158183.15</v>
+        <v>99544.74000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>156201.32</v>
+        <v>107107.37</v>
       </c>
       <c r="H19" t="n">
-        <v>156021.26</v>
+        <v>107230.59</v>
       </c>
       <c r="I19" t="n">
-        <v>138099.91</v>
+        <v>107548.43</v>
       </c>
       <c r="J19" t="n">
-        <v>129246.05</v>
+        <v>107419.34</v>
       </c>
       <c r="K19" t="n">
-        <v>129627.78</v>
+        <v>107768.03</v>
       </c>
       <c r="L19" t="n">
-        <v>105846.31</v>
+        <v>107452.53</v>
       </c>
       <c r="M19" t="n">
-        <v>99847.61</v>
-      </c>
+        <v>107643.36</v>
+      </c>
+      <c r="N19" t="n">
+        <v>107308.33</v>
+      </c>
+      <c r="O19" t="n">
+        <v>107248.73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>107382.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>68210.39</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1262,38 +2044,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>229261.36</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>251210.48</v>
+      </c>
+      <c r="C20" t="n">
+        <v>251533.16</v>
+      </c>
       <c r="D20" t="n">
-        <v>232818.67</v>
+        <v>261216.67</v>
       </c>
       <c r="E20" t="n">
-        <v>269022.46</v>
+        <v>247966</v>
       </c>
       <c r="F20" t="n">
-        <v>267160.82</v>
+        <v>254955.07</v>
       </c>
       <c r="G20" t="n">
-        <v>268101.87</v>
+        <v>259316.74</v>
       </c>
       <c r="H20" t="n">
-        <v>267342.63</v>
+        <v>259923.45</v>
       </c>
       <c r="I20" t="n">
-        <v>264658.9</v>
+        <v>265722.82</v>
       </c>
       <c r="J20" t="n">
-        <v>265696.28</v>
+        <v>275601.06</v>
       </c>
       <c r="K20" t="n">
-        <v>260460.06</v>
+        <v>274654.18</v>
       </c>
       <c r="L20" t="n">
-        <v>257137.3</v>
+        <v>285452.08</v>
       </c>
       <c r="M20" t="n">
-        <v>251210.48</v>
+        <v>293842.35</v>
+      </c>
+      <c r="N20" t="n">
+        <v>294761.97</v>
+      </c>
+      <c r="O20" t="n">
+        <v>294503.67</v>
+      </c>
+      <c r="P20" t="n">
+        <v>302698.36</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>328362.54</v>
+      </c>
+      <c r="R20" t="n">
+        <v>339963.41</v>
+      </c>
+      <c r="S20" t="n">
+        <v>318670.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>319123.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>323643.97</v>
+      </c>
+      <c r="V20" t="n">
+        <v>336062.63</v>
+      </c>
+      <c r="W20" t="n">
+        <v>340418.6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>349832.66</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>339946.13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>343435.96</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>333093.22</v>
       </c>
     </row>
     <row r="21">
@@ -1303,40 +2129,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110452.16</v>
+        <v>117965.78</v>
       </c>
       <c r="C21" t="n">
-        <v>113029.57</v>
+        <v>117855.04</v>
       </c>
       <c r="D21" t="n">
-        <v>118132.82</v>
+        <v>122878.85</v>
       </c>
       <c r="E21" t="n">
-        <v>118258.57</v>
+        <v>118181.66</v>
       </c>
       <c r="F21" t="n">
-        <v>118030.6</v>
+        <v>117925.74</v>
       </c>
       <c r="G21" t="n">
-        <v>117752.13</v>
+        <v>115845.51</v>
       </c>
       <c r="H21" t="n">
-        <v>117996.79</v>
+        <v>115276.29</v>
       </c>
       <c r="I21" t="n">
-        <v>118037.94</v>
+        <v>121372.63</v>
       </c>
       <c r="J21" t="n">
-        <v>118483.4</v>
+        <v>121659.06</v>
       </c>
       <c r="K21" t="n">
-        <v>118431.26</v>
+        <v>121187.28</v>
       </c>
       <c r="L21" t="n">
-        <v>117778.57</v>
+        <v>121740.51</v>
       </c>
       <c r="M21" t="n">
-        <v>117965.78</v>
+        <v>121855.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>121384.76</v>
+      </c>
+      <c r="O21" t="n">
+        <v>121698.69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>134968.58</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>138787.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>140208.02</v>
+      </c>
+      <c r="S21" t="n">
+        <v>140139.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>140672.01</v>
+      </c>
+      <c r="U21" t="n">
+        <v>140891.96</v>
+      </c>
+      <c r="V21" t="n">
+        <v>141027.13</v>
+      </c>
+      <c r="W21" t="n">
+        <v>142524.45</v>
+      </c>
+      <c r="X21" t="n">
+        <v>146533.79</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>144545.05</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>147025.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>147509.5</v>
       </c>
     </row>
     <row r="22">
@@ -1346,40 +2214,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>484.7</v>
+        <v>6544.61</v>
       </c>
       <c r="C22" t="n">
-        <v>544.77</v>
+        <v>6552.09</v>
       </c>
       <c r="D22" t="n">
-        <v>549.12</v>
+        <v>6721.7</v>
       </c>
       <c r="E22" t="n">
-        <v>6457.04</v>
+        <v>6504.98</v>
       </c>
       <c r="F22" t="n">
-        <v>6520.15</v>
+        <v>6445.25</v>
       </c>
       <c r="G22" t="n">
-        <v>6514.86</v>
+        <v>6519.89</v>
       </c>
       <c r="H22" t="n">
-        <v>6546.7</v>
+        <v>6319.59</v>
       </c>
       <c r="I22" t="n">
-        <v>6544.47</v>
+        <v>6534.82</v>
       </c>
       <c r="J22" t="n">
-        <v>6541.63</v>
+        <v>6450.33</v>
       </c>
       <c r="K22" t="n">
-        <v>6517.62</v>
+        <v>6484.19</v>
       </c>
       <c r="L22" t="n">
-        <v>6442.94</v>
+        <v>6431.01</v>
       </c>
       <c r="M22" t="n">
-        <v>6544.61</v>
+        <v>6459.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6476.51</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6572.02</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6580.98</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6496.91</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6537.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6515.81</v>
+      </c>
+      <c r="T22" t="n">
+        <v>6421.43</v>
+      </c>
+      <c r="U22" t="n">
+        <v>6515.34</v>
+      </c>
+      <c r="V22" t="n">
+        <v>6437.71</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6452.23</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6561.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>6528.32</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6529.92</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6565.15</v>
       </c>
     </row>
     <row r="23">
@@ -1389,40 +2299,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>612.96</v>
+        <v>605.53</v>
       </c>
       <c r="C23" t="n">
-        <v>613.24</v>
+        <v>595.04</v>
       </c>
       <c r="D23" t="n">
-        <v>599.9400000000001</v>
+        <v>628.8</v>
       </c>
       <c r="E23" t="n">
-        <v>596.16</v>
+        <v>596.08</v>
       </c>
       <c r="F23" t="n">
-        <v>603.88</v>
+        <v>617.5700000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>594.25</v>
+        <v>612.37</v>
       </c>
       <c r="H23" t="n">
-        <v>611.38</v>
+        <v>572.52</v>
       </c>
       <c r="I23" t="n">
-        <v>601.49</v>
+        <v>597.8099999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>583.02</v>
+        <v>578.12</v>
       </c>
       <c r="K23" t="n">
-        <v>606.02</v>
+        <v>613.4299999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>594.8200000000001</v>
+        <v>596.4299999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>605.53</v>
+        <v>613.13</v>
+      </c>
+      <c r="N23" t="n">
+        <v>614.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>585.6900000000001</v>
+      </c>
+      <c r="P23" t="n">
+        <v>606.04</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>612.36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>621.49</v>
+      </c>
+      <c r="S23" t="n">
+        <v>595.86</v>
+      </c>
+      <c r="T23" t="n">
+        <v>609.09</v>
+      </c>
+      <c r="U23" t="n">
+        <v>620.36</v>
+      </c>
+      <c r="V23" t="n">
+        <v>596.8200000000001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>577.52</v>
+      </c>
+      <c r="X23" t="n">
+        <v>621.4400000000001</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>613.05</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>582.05</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>615.2</v>
       </c>
     </row>
     <row r="24">
@@ -1432,40 +2384,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41553.33</v>
+        <v>38658.77</v>
       </c>
       <c r="C24" t="n">
-        <v>41353.04</v>
+        <v>38416.01</v>
       </c>
       <c r="D24" t="n">
-        <v>41577.84</v>
+        <v>40099.93</v>
       </c>
       <c r="E24" t="n">
-        <v>41281.3</v>
+        <v>38320.54</v>
       </c>
       <c r="F24" t="n">
-        <v>41574.76</v>
+        <v>38444.27</v>
       </c>
       <c r="G24" t="n">
-        <v>41418.37</v>
+        <v>36408.94</v>
       </c>
       <c r="H24" t="n">
-        <v>48464.38</v>
+        <v>36390.28</v>
       </c>
       <c r="I24" t="n">
-        <v>43430.32</v>
+        <v>36329.7</v>
       </c>
       <c r="J24" t="n">
-        <v>43502.61</v>
+        <v>36422.03</v>
       </c>
       <c r="K24" t="n">
-        <v>43380.64</v>
+        <v>36305.9</v>
       </c>
       <c r="L24" t="n">
-        <v>38433.97</v>
+        <v>36322.78</v>
       </c>
       <c r="M24" t="n">
-        <v>38658.77</v>
+        <v>36615.99</v>
+      </c>
+      <c r="N24" t="n">
+        <v>51385.74</v>
+      </c>
+      <c r="O24" t="n">
+        <v>51493.23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>51466.01</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>51491.38</v>
+      </c>
+      <c r="R24" t="n">
+        <v>51403.74</v>
+      </c>
+      <c r="S24" t="n">
+        <v>51580.05</v>
+      </c>
+      <c r="T24" t="n">
+        <v>51558.73</v>
+      </c>
+      <c r="U24" t="n">
+        <v>51428.59</v>
+      </c>
+      <c r="V24" t="n">
+        <v>56561.77</v>
+      </c>
+      <c r="W24" t="n">
+        <v>66571.11</v>
+      </c>
+      <c r="X24" t="n">
+        <v>76666.72</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>76649.25999999999</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>76639.07000000001</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>76699.39</v>
       </c>
     </row>
     <row r="25">
@@ -1475,40 +2469,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88052.3</v>
+        <v>69997.47</v>
       </c>
       <c r="C25" t="n">
-        <v>88282.33</v>
+        <v>70135.00999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>75486.55</v>
+        <v>72970</v>
       </c>
       <c r="E25" t="n">
-        <v>75429.5</v>
+        <v>70414.46000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>75383.16</v>
+        <v>70402.03</v>
       </c>
       <c r="G25" t="n">
-        <v>75176.41</v>
+        <v>74182.69</v>
       </c>
       <c r="H25" t="n">
-        <v>75187.83</v>
+        <v>69728.62</v>
       </c>
       <c r="I25" t="n">
-        <v>75090.48</v>
+        <v>69509.25</v>
       </c>
       <c r="J25" t="n">
-        <v>75566.53</v>
+        <v>69302.61</v>
       </c>
       <c r="K25" t="n">
-        <v>70618.67</v>
+        <v>69456.55</v>
       </c>
       <c r="L25" t="n">
-        <v>70531.78</v>
+        <v>69268.06</v>
       </c>
       <c r="M25" t="n">
-        <v>69997.47</v>
+        <v>69720.35000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>69769.96000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>69264.66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>69785.64</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>69653.41</v>
+      </c>
+      <c r="R25" t="n">
+        <v>69062.37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>69673.66</v>
+      </c>
+      <c r="T25" t="n">
+        <v>69732.86</v>
+      </c>
+      <c r="U25" t="n">
+        <v>69263</v>
+      </c>
+      <c r="V25" t="n">
+        <v>89800.35000000001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>89095.41</v>
+      </c>
+      <c r="X25" t="n">
+        <v>89392.55</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>78840.53</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>68829.39</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>64289.89</v>
       </c>
     </row>
     <row r="26">
@@ -1518,40 +2554,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41973.02</v>
+        <v>60861.92</v>
       </c>
       <c r="C26" t="n">
-        <v>43881.66</v>
+        <v>60721.23</v>
       </c>
       <c r="D26" t="n">
-        <v>56319.48</v>
+        <v>61302.89</v>
       </c>
       <c r="E26" t="n">
-        <v>59004.91</v>
+        <v>58569.59</v>
       </c>
       <c r="F26" t="n">
-        <v>58551.15</v>
+        <v>59607.39</v>
       </c>
       <c r="G26" t="n">
-        <v>58492.03</v>
+        <v>63103.16</v>
       </c>
       <c r="H26" t="n">
-        <v>69396.14</v>
+        <v>65039.04</v>
       </c>
       <c r="I26" t="n">
-        <v>69586.34</v>
+        <v>67214.75</v>
       </c>
       <c r="J26" t="n">
-        <v>69501.50999999999</v>
+        <v>68389.99000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>69583.23</v>
+        <v>71819.24000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>69115.84</v>
+        <v>71835.62</v>
       </c>
       <c r="M26" t="n">
-        <v>60861.92</v>
+        <v>83505.62</v>
+      </c>
+      <c r="N26" t="n">
+        <v>83661.78</v>
+      </c>
+      <c r="O26" t="n">
+        <v>85753.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>87705.17999999999</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>87821.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>87797.34</v>
+      </c>
+      <c r="S26" t="n">
+        <v>87754.14</v>
+      </c>
+      <c r="T26" t="n">
+        <v>75388.36</v>
+      </c>
+      <c r="U26" t="n">
+        <v>76634.25999999999</v>
+      </c>
+      <c r="V26" t="n">
+        <v>74803.81</v>
+      </c>
+      <c r="W26" t="n">
+        <v>73300.11</v>
+      </c>
+      <c r="X26" t="n">
+        <v>76130.28999999999</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>66161.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>72557.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>72452.42</v>
       </c>
     </row>
     <row r="27">
@@ -1561,40 +2639,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9787.309999999999</v>
+        <v>11183.17</v>
       </c>
       <c r="C27" t="n">
-        <v>9791.33</v>
+        <v>10677.6</v>
       </c>
       <c r="D27" t="n">
-        <v>11183.54</v>
+        <v>11083.97</v>
       </c>
       <c r="E27" t="n">
-        <v>11189.12</v>
+        <v>10675.83</v>
       </c>
       <c r="F27" t="n">
-        <v>11176.28</v>
+        <v>10683.22</v>
       </c>
       <c r="G27" t="n">
-        <v>11182.01</v>
+        <v>10682.05</v>
       </c>
       <c r="H27" t="n">
-        <v>11178.14</v>
+        <v>10686.8</v>
       </c>
       <c r="I27" t="n">
-        <v>11176.02</v>
+        <v>10676.11</v>
       </c>
       <c r="J27" t="n">
-        <v>11178.1</v>
+        <v>10687.18</v>
       </c>
       <c r="K27" t="n">
-        <v>11192.65</v>
+        <v>10677.73</v>
       </c>
       <c r="L27" t="n">
-        <v>11183.08</v>
+        <v>10675.84</v>
       </c>
       <c r="M27" t="n">
-        <v>11183.17</v>
+        <v>10682.18</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10669.88</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10669.84</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10671.58</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10670.91</v>
+      </c>
+      <c r="R27" t="n">
+        <v>10667.52</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10686.76</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10718.08</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10670.69</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10675.93</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10683</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10099.73</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10081.38</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10086.61</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10089.6</v>
       </c>
     </row>
     <row r="28">
@@ -1604,40 +2724,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17694.57</v>
+        <v>17008.53</v>
       </c>
       <c r="C28" t="n">
-        <v>17683.51</v>
+        <v>17029.82</v>
       </c>
       <c r="D28" t="n">
-        <v>17611.86</v>
+        <v>17703.94</v>
       </c>
       <c r="E28" t="n">
-        <v>21963.18</v>
+        <v>16915.3</v>
       </c>
       <c r="F28" t="n">
-        <v>22081.87</v>
+        <v>17050.56</v>
       </c>
       <c r="G28" t="n">
-        <v>22045.44</v>
+        <v>17061.99</v>
       </c>
       <c r="H28" t="n">
-        <v>22010.14</v>
+        <v>17012.81</v>
       </c>
       <c r="I28" t="n">
-        <v>21998.43</v>
+        <v>17044.53</v>
       </c>
       <c r="J28" t="n">
-        <v>17098.27</v>
+        <v>10053.73</v>
       </c>
       <c r="K28" t="n">
-        <v>17033.89</v>
+        <v>10019.95</v>
       </c>
       <c r="L28" t="n">
-        <v>17168.84</v>
+        <v>10083.05</v>
       </c>
       <c r="M28" t="n">
-        <v>17008.53</v>
+        <v>9880.620000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10098.73</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10069.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10018.73</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>10140.2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>9858.610000000001</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10069.45</v>
+      </c>
+      <c r="T28" t="n">
+        <v>25029.38</v>
+      </c>
+      <c r="U28" t="n">
+        <v>25044.02</v>
+      </c>
+      <c r="V28" t="n">
+        <v>24855.16</v>
+      </c>
+      <c r="W28" t="n">
+        <v>25170.06</v>
+      </c>
+      <c r="X28" t="n">
+        <v>24863.71</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>24860.21</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>25142.04</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>24927.51</v>
       </c>
     </row>
     <row r="29">
@@ -1647,40 +2809,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5379.84</v>
+        <v>15423.54</v>
       </c>
       <c r="C29" t="n">
-        <v>5349.13</v>
+        <v>15401.01</v>
       </c>
       <c r="D29" t="n">
-        <v>5381.18</v>
+        <v>16048.65</v>
       </c>
       <c r="E29" t="n">
-        <v>15500.11</v>
+        <v>15472.48</v>
       </c>
       <c r="F29" t="n">
-        <v>15416.97</v>
+        <v>15423.88</v>
       </c>
       <c r="G29" t="n">
-        <v>15450.3</v>
+        <v>15481.89</v>
       </c>
       <c r="H29" t="n">
-        <v>15471.55</v>
+        <v>15522.21</v>
       </c>
       <c r="I29" t="n">
-        <v>15452.19</v>
+        <v>15410.51</v>
       </c>
       <c r="J29" t="n">
-        <v>15402.54</v>
+        <v>15494.9</v>
       </c>
       <c r="K29" t="n">
-        <v>15477.87</v>
+        <v>15467.35</v>
       </c>
       <c r="L29" t="n">
-        <v>15455.62</v>
+        <v>15503.6</v>
       </c>
       <c r="M29" t="n">
-        <v>15423.54</v>
+        <v>15448.92</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15422.96</v>
+      </c>
+      <c r="O29" t="n">
+        <v>15445.14</v>
+      </c>
+      <c r="P29" t="n">
+        <v>15429.14</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>15537.1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>15516.82</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15491.05</v>
+      </c>
+      <c r="T29" t="n">
+        <v>15515.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>15448.76</v>
+      </c>
+      <c r="V29" t="n">
+        <v>15417.39</v>
+      </c>
+      <c r="W29" t="n">
+        <v>15521.46</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15385.37</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15428.73</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15455.46</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>15498.38</v>
       </c>
     </row>
     <row r="30">
@@ -1690,40 +2894,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25504.97</v>
+        <v>22011.66</v>
       </c>
       <c r="C30" t="n">
-        <v>25435.19</v>
+        <v>21996.12</v>
       </c>
       <c r="D30" t="n">
-        <v>25525.43</v>
+        <v>22804.71</v>
       </c>
       <c r="E30" t="n">
-        <v>25447.85</v>
+        <v>12340.38</v>
       </c>
       <c r="F30" t="n">
-        <v>21924.02</v>
+        <v>12383.68</v>
       </c>
       <c r="G30" t="n">
-        <v>21982.46</v>
+        <v>12299.64</v>
       </c>
       <c r="H30" t="n">
-        <v>21974.71</v>
+        <v>12363.54</v>
       </c>
       <c r="I30" t="n">
-        <v>21968.94</v>
+        <v>12306.67</v>
       </c>
       <c r="J30" t="n">
-        <v>21964.03</v>
+        <v>12361.7</v>
       </c>
       <c r="K30" t="n">
-        <v>21935.33</v>
+        <v>12348.64</v>
       </c>
       <c r="L30" t="n">
-        <v>21945.63</v>
+        <v>12348.34</v>
       </c>
       <c r="M30" t="n">
-        <v>22011.66</v>
+        <v>12322.62</v>
+      </c>
+      <c r="N30" t="n">
+        <v>23641.74</v>
+      </c>
+      <c r="O30" t="n">
+        <v>23599.9</v>
+      </c>
+      <c r="P30" t="n">
+        <v>23614.05</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>23617.36</v>
+      </c>
+      <c r="R30" t="n">
+        <v>23670.11</v>
+      </c>
+      <c r="S30" t="n">
+        <v>23612.62</v>
+      </c>
+      <c r="T30" t="n">
+        <v>17294.88</v>
+      </c>
+      <c r="U30" t="n">
+        <v>17271.53</v>
+      </c>
+      <c r="V30" t="n">
+        <v>10589.65</v>
+      </c>
+      <c r="W30" t="n">
+        <v>12364.63</v>
+      </c>
+      <c r="X30" t="n">
+        <v>12385.57</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12398.65</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>12405.63</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>12317.34</v>
       </c>
     </row>
     <row r="31">
@@ -1733,38 +2979,82 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50379.18</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>86346.19</v>
+      </c>
+      <c r="C31" t="n">
+        <v>86406.08</v>
+      </c>
       <c r="D31" t="n">
-        <v>86500.06</v>
+        <v>89743.72</v>
       </c>
       <c r="E31" t="n">
-        <v>86505.55</v>
+        <v>86613.66</v>
       </c>
       <c r="F31" t="n">
-        <v>86477.11</v>
+        <v>86464.98</v>
       </c>
       <c r="G31" t="n">
-        <v>86426.50999999999</v>
+        <v>86338.47</v>
       </c>
       <c r="H31" t="n">
-        <v>86338.33</v>
+        <v>86311.88</v>
       </c>
       <c r="I31" t="n">
-        <v>86364.94</v>
+        <v>86567.56</v>
       </c>
       <c r="J31" t="n">
-        <v>86656.17</v>
+        <v>86422.45</v>
       </c>
       <c r="K31" t="n">
-        <v>86527.49000000001</v>
+        <v>86280.21000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>86561.13</v>
+        <v>86426.5</v>
       </c>
       <c r="M31" t="n">
-        <v>86346.19</v>
+        <v>86367.37</v>
+      </c>
+      <c r="N31" t="n">
+        <v>86681.09</v>
+      </c>
+      <c r="O31" t="n">
+        <v>86507.50999999999</v>
+      </c>
+      <c r="P31" t="n">
+        <v>86710.42999999999</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>86686.41</v>
+      </c>
+      <c r="R31" t="n">
+        <v>86638.24000000001</v>
+      </c>
+      <c r="S31" t="n">
+        <v>86633</v>
+      </c>
+      <c r="T31" t="n">
+        <v>109865.35</v>
+      </c>
+      <c r="U31" t="n">
+        <v>109951.32</v>
+      </c>
+      <c r="V31" t="n">
+        <v>109865.76</v>
+      </c>
+      <c r="W31" t="n">
+        <v>109589.99</v>
+      </c>
+      <c r="X31" t="n">
+        <v>109575.97</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>109766.15</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>122415.44</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>122627.43</v>
       </c>
     </row>
     <row r="32">
@@ -1774,195 +3064,421 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>74989.28</v>
+        <v>124814.84</v>
       </c>
       <c r="C32" t="n">
-        <v>74852.06</v>
+        <v>124715.92</v>
       </c>
       <c r="D32" t="n">
-        <v>75029.66</v>
+        <v>129621.81</v>
       </c>
       <c r="E32" t="n">
-        <v>75145.8</v>
+        <v>124783.72</v>
       </c>
       <c r="F32" t="n">
-        <v>74839.10000000001</v>
+        <v>124832.01</v>
       </c>
       <c r="G32" t="n">
-        <v>124929.66</v>
+        <v>124812.54</v>
       </c>
       <c r="H32" t="n">
-        <v>124979.29</v>
+        <v>125239.63</v>
       </c>
       <c r="I32" t="n">
-        <v>125221</v>
+        <v>125027.6</v>
       </c>
       <c r="J32" t="n">
-        <v>125222.36</v>
+        <v>125283.31</v>
       </c>
       <c r="K32" t="n">
-        <v>124929.47</v>
+        <v>125040.52</v>
       </c>
       <c r="L32" t="n">
-        <v>125086.88</v>
+        <v>125403.29</v>
       </c>
       <c r="M32" t="n">
-        <v>124814.84</v>
+        <v>124582.58</v>
+      </c>
+      <c r="N32" t="n">
+        <v>125001.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>124481.16</v>
+      </c>
+      <c r="P32" t="n">
+        <v>125428.68</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>125170.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>124625.93</v>
+      </c>
+      <c r="S32" t="n">
+        <v>124946.57</v>
+      </c>
+      <c r="T32" t="n">
+        <v>125692.2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>124878.52</v>
+      </c>
+      <c r="V32" t="n">
+        <v>125455.68</v>
+      </c>
+      <c r="W32" t="n">
+        <v>125289.98</v>
+      </c>
+      <c r="X32" t="n">
+        <v>125465.22</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>125101.56</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>124930.09</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>125490.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>84283.78999999999</v>
-      </c>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>84278.53999999999</v>
+        <v>24976.63</v>
       </c>
       <c r="D33" t="n">
-        <v>84412.44</v>
+        <v>25910.19</v>
       </c>
       <c r="E33" t="n">
-        <v>84100.37</v>
+        <v>25099.83</v>
       </c>
       <c r="F33" t="n">
-        <v>84167.75</v>
+        <v>25065.7</v>
       </c>
       <c r="G33" t="n">
-        <v>84267.87</v>
+        <v>25131.72</v>
       </c>
       <c r="H33" t="n">
-        <v>84383.97</v>
+        <v>25044.32</v>
       </c>
       <c r="I33" t="n">
-        <v>84071.67</v>
+        <v>24984.41</v>
       </c>
       <c r="J33" t="n">
-        <v>84099.72</v>
+        <v>24957.34</v>
       </c>
       <c r="K33" t="n">
-        <v>84468.42</v>
+        <v>25062.56</v>
       </c>
       <c r="L33" t="n">
-        <v>84213.21000000001</v>
+        <v>24954.23</v>
       </c>
       <c r="M33" t="n">
-        <v>84316.57000000001</v>
+        <v>35031.66</v>
+      </c>
+      <c r="N33" t="n">
+        <v>35157.49</v>
+      </c>
+      <c r="O33" t="n">
+        <v>35135.16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>35097.85</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>71840.09</v>
+      </c>
+      <c r="R33" t="n">
+        <v>72135</v>
+      </c>
+      <c r="S33" t="n">
+        <v>72205.81</v>
+      </c>
+      <c r="T33" t="n">
+        <v>72228.84</v>
+      </c>
+      <c r="U33" t="n">
+        <v>72210.83</v>
+      </c>
+      <c r="V33" t="n">
+        <v>72119.97</v>
+      </c>
+      <c r="W33" t="n">
+        <v>71892.27</v>
+      </c>
+      <c r="X33" t="n">
+        <v>72043.39999999999</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>72191.16</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>56954.45</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>56875.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59443.28</v>
+        <v>84316.57000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>59509.98</v>
+        <v>84457.59</v>
       </c>
       <c r="D34" t="n">
-        <v>77366.86</v>
+        <v>87565.69</v>
       </c>
       <c r="E34" t="n">
-        <v>75822.75999999999</v>
+        <v>50860.07</v>
       </c>
       <c r="F34" t="n">
-        <v>82088.21000000001</v>
+        <v>50723.88</v>
       </c>
       <c r="G34" t="n">
-        <v>83016.49000000001</v>
+        <v>50653.9</v>
       </c>
       <c r="H34" t="n">
-        <v>83384.00999999999</v>
+        <v>50876.71</v>
       </c>
       <c r="I34" t="n">
-        <v>83357.37</v>
+        <v>50545.77</v>
       </c>
       <c r="J34" t="n">
-        <v>83256.03</v>
+        <v>50920.39</v>
       </c>
       <c r="K34" t="n">
-        <v>83146.63</v>
+        <v>50654.24</v>
       </c>
       <c r="L34" t="n">
-        <v>83134.28</v>
+        <v>50702.52</v>
       </c>
       <c r="M34" t="n">
-        <v>80952.25999999999</v>
+        <v>50480.29</v>
+      </c>
+      <c r="N34" t="n">
+        <v>93611.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>82233.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>76118.69</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>76166.99000000001</v>
+      </c>
+      <c r="R34" t="n">
+        <v>76214.27</v>
+      </c>
+      <c r="S34" t="n">
+        <v>75999.42</v>
+      </c>
+      <c r="T34" t="n">
+        <v>56389.65</v>
+      </c>
+      <c r="U34" t="n">
+        <v>56476.58</v>
+      </c>
+      <c r="V34" t="n">
+        <v>35404.94</v>
+      </c>
+      <c r="W34" t="n">
+        <v>35322.51</v>
+      </c>
+      <c r="X34" t="n">
+        <v>35394.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>35398.05</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>37191.44</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>37478.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>253901.02</v>
+        <v>80952.25999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>254941.33</v>
+        <v>76516.75999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>255328.94</v>
+        <v>79339.86</v>
       </c>
       <c r="E35" t="n">
-        <v>254974.94</v>
+        <v>77362.03999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>254114.39</v>
+        <v>76307.98</v>
       </c>
       <c r="G35" t="n">
-        <v>255981.68</v>
+        <v>83172.03</v>
       </c>
       <c r="H35" t="n">
-        <v>254640.21</v>
+        <v>83338.83</v>
       </c>
       <c r="I35" t="n">
-        <v>253175.24</v>
+        <v>83191.17</v>
       </c>
       <c r="J35" t="n">
-        <v>254405.01</v>
+        <v>83179.62</v>
       </c>
       <c r="K35" t="n">
-        <v>253964.63</v>
+        <v>83110.24000000001</v>
       </c>
       <c r="L35" t="n">
-        <v>255527.37</v>
+        <v>82423.44</v>
       </c>
       <c r="M35" t="n">
-        <v>255395.5</v>
+        <v>77350.03999999999</v>
+      </c>
+      <c r="N35" t="n">
+        <v>76217.60000000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>76912.46000000001</v>
+      </c>
+      <c r="P35" t="n">
+        <v>83354.66</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>93507.44</v>
+      </c>
+      <c r="R35" t="n">
+        <v>93504.87</v>
+      </c>
+      <c r="S35" t="n">
+        <v>93482.25</v>
+      </c>
+      <c r="T35" t="n">
+        <v>102800.22</v>
+      </c>
+      <c r="U35" t="n">
+        <v>102662.49</v>
+      </c>
+      <c r="V35" t="n">
+        <v>100961.49</v>
+      </c>
+      <c r="W35" t="n">
+        <v>101114.56</v>
+      </c>
+      <c r="X35" t="n">
+        <v>124223.14</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>124549.6</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>124472.17</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>124183.86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10703.51</v>
+        <v>255395.5</v>
       </c>
       <c r="C36" t="n">
-        <v>11401.7</v>
+        <v>254135.45</v>
       </c>
       <c r="D36" t="n">
-        <v>11742.18</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+        <v>242043.24</v>
+      </c>
+      <c r="E36" t="n">
+        <v>232717.67</v>
+      </c>
+      <c r="F36" t="n">
+        <v>231236.96</v>
+      </c>
+      <c r="G36" t="n">
+        <v>231621.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>231608.28</v>
+      </c>
+      <c r="I36" t="n">
+        <v>231446.74</v>
+      </c>
+      <c r="J36" t="n">
+        <v>232983.7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>232852.84</v>
+      </c>
+      <c r="L36" t="n">
+        <v>185166.78</v>
+      </c>
+      <c r="M36" t="n">
+        <v>185577.88</v>
+      </c>
+      <c r="N36" t="n">
+        <v>184542.83</v>
+      </c>
+      <c r="O36" t="n">
+        <v>185847.11</v>
+      </c>
+      <c r="P36" t="n">
+        <v>184837.03</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>185009.24</v>
+      </c>
+      <c r="R36" t="n">
+        <v>184112.25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>140644.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>111568.65</v>
+      </c>
+      <c r="U36" t="n">
+        <v>111916.98</v>
+      </c>
+      <c r="V36" t="n">
+        <v>74125.17999999999</v>
+      </c>
+      <c r="W36" t="n">
+        <v>74128.08</v>
+      </c>
+      <c r="X36" t="n">
+        <v>73639.42</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>74986.73</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>75395.24000000001</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>73559.92999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1971,41 +3487,59 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>345735.97</v>
+        <v>423707.82</v>
       </c>
       <c r="C37" t="n">
-        <v>294343.25</v>
+        <v>353627.06</v>
       </c>
       <c r="D37" t="n">
-        <v>279969.96</v>
+        <v>362713.58</v>
       </c>
       <c r="E37" t="n">
-        <v>258444.19</v>
+        <v>320564.11</v>
       </c>
       <c r="F37" t="n">
-        <v>293400.3</v>
+        <v>327828.09</v>
       </c>
       <c r="G37" t="n">
-        <v>290176.4</v>
+        <v>322639.57</v>
       </c>
       <c r="H37" t="n">
-        <v>302740.14</v>
+        <v>324032.1</v>
       </c>
       <c r="I37" t="n">
-        <v>317541.71</v>
+        <v>338935.95</v>
       </c>
       <c r="J37" t="n">
-        <v>347350.09</v>
+        <v>355493.8</v>
       </c>
       <c r="K37" t="n">
-        <v>354169.4</v>
+        <v>367069.63</v>
       </c>
       <c r="L37" t="n">
-        <v>394928.98</v>
+        <v>352133.42</v>
       </c>
       <c r="M37" t="n">
-        <v>423707.82</v>
-      </c>
+        <v>319000.18</v>
+      </c>
+      <c r="N37" t="n">
+        <v>297755.73</v>
+      </c>
+      <c r="O37" t="n">
+        <v>285734.49</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2014,151 +3548,252 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29963.54</v>
+        <v>30043.85</v>
       </c>
       <c r="C38" t="n">
-        <v>29933.52</v>
+        <v>29922.07</v>
       </c>
       <c r="D38" t="n">
-        <v>29998.13</v>
+        <v>31085.04</v>
       </c>
       <c r="E38" t="n">
-        <v>30052.24</v>
+        <v>30071.25</v>
       </c>
       <c r="F38" t="n">
-        <v>30018</v>
+        <v>30027.97</v>
       </c>
       <c r="G38" t="n">
-        <v>29955.01</v>
+        <v>30003.35</v>
       </c>
       <c r="H38" t="n">
-        <v>29937.66</v>
+        <v>30076.19</v>
       </c>
       <c r="I38" t="n">
-        <v>29976.35</v>
+        <v>30477.58</v>
       </c>
       <c r="J38" t="n">
-        <v>30009.18</v>
+        <v>30384.16</v>
       </c>
       <c r="K38" t="n">
-        <v>30000.9</v>
+        <v>30462.07</v>
       </c>
       <c r="L38" t="n">
-        <v>30055.84</v>
+        <v>30485.29</v>
       </c>
       <c r="M38" t="n">
-        <v>30043.85</v>
+        <v>30053.6</v>
+      </c>
+      <c r="N38" t="n">
+        <v>30071.47</v>
+      </c>
+      <c r="O38" t="n">
+        <v>38787.94</v>
+      </c>
+      <c r="P38" t="n">
+        <v>38839.86</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>38737.07</v>
+      </c>
+      <c r="R38" t="n">
+        <v>38780.51</v>
+      </c>
+      <c r="S38" t="n">
+        <v>38851.44</v>
+      </c>
+      <c r="T38" t="n">
+        <v>38908.98</v>
+      </c>
+      <c r="U38" t="n">
+        <v>38737.67</v>
+      </c>
+      <c r="V38" t="n">
+        <v>38875</v>
+      </c>
+      <c r="W38" t="n">
+        <v>38696.46</v>
+      </c>
+      <c r="X38" t="n">
+        <v>38712.6</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>38701.87</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>38814.62</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>38780.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>72719.12</v>
+        <v>85957.39</v>
       </c>
       <c r="C39" t="n">
-        <v>72630.53</v>
+        <v>81883.21000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>72674.14999999999</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+        <v>84055.33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77541.03</v>
+      </c>
+      <c r="F39" t="n">
+        <v>78021.08</v>
+      </c>
+      <c r="G39" t="n">
+        <v>79023.86</v>
+      </c>
+      <c r="H39" t="n">
+        <v>79042.64999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>80318.86</v>
+      </c>
+      <c r="J39" t="n">
+        <v>82177.66</v>
+      </c>
+      <c r="K39" t="n">
+        <v>82718.72</v>
+      </c>
+      <c r="L39" t="n">
+        <v>81770.19</v>
+      </c>
+      <c r="M39" t="n">
+        <v>82379.57000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>83720.97</v>
+      </c>
+      <c r="O39" t="n">
+        <v>83491.53999999999</v>
+      </c>
+      <c r="P39" t="n">
+        <v>78873.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>79729.09</v>
+      </c>
+      <c r="R39" t="n">
+        <v>80723.37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>81126.64</v>
+      </c>
+      <c r="T39" t="n">
+        <v>80213.94</v>
+      </c>
+      <c r="U39" t="n">
+        <v>77720.05</v>
+      </c>
+      <c r="V39" t="n">
+        <v>77317.34</v>
+      </c>
+      <c r="W39" t="n">
+        <v>79447.17999999999</v>
+      </c>
+      <c r="X39" t="n">
+        <v>83591.17999999999</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>82645.77</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>83515.17</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>81579.78999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82156.50999999999</v>
+        <v>3094466.19</v>
       </c>
       <c r="C40" t="n">
-        <v>84146.75999999999</v>
+        <v>3029678.92</v>
       </c>
       <c r="D40" t="n">
-        <v>86058.12</v>
+        <v>3110047.36</v>
       </c>
       <c r="E40" t="n">
-        <v>91961.84</v>
+        <v>2869018.29</v>
       </c>
       <c r="F40" t="n">
-        <v>94351.85000000001</v>
+        <v>2886780</v>
       </c>
       <c r="G40" t="n">
-        <v>96331.53</v>
+        <v>2923882.88</v>
       </c>
       <c r="H40" t="n">
-        <v>96603.07000000001</v>
+        <v>2924578.05</v>
       </c>
       <c r="I40" t="n">
-        <v>95412.95</v>
+        <v>2971798</v>
       </c>
       <c r="J40" t="n">
-        <v>94922.94</v>
+        <v>3040573.52</v>
       </c>
       <c r="K40" t="n">
-        <v>93377.67999999999</v>
+        <v>3060592.63</v>
       </c>
       <c r="L40" t="n">
-        <v>88657.03999999999</v>
+        <v>3025497.21</v>
       </c>
       <c r="M40" t="n">
-        <v>85957.39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3121947.39</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2440256.11</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3270208.42</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3310626.35</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3396666.47</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3467935.18</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3477710.55</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3434866.17</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3417225.9</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3361596.48</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3191653.28</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3094466.19</v>
+        <v>3048044.11</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3097676.01</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3089186.87</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2839445.98</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2870247.08</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2744594.61</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2677179.26</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2647060.11</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2564761.75</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2551472.3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2621756.93</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2758508.86</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2727310.36</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2756000.49</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2692132.93</v>
       </c>
     </row>
   </sheetData>
